--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_16ha_100ha_10%_12m_0_LM/Planilha_Unificada.xlsx
@@ -7312,28 +7312,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.2329870621683</v>
+        <v>214.947942489048</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.3425742295026</v>
+        <v>294.1012577473369</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.0270724083747</v>
+        <v>266.0326464817255</v>
       </c>
       <c r="AD2" t="n">
-        <v>163232.9870621683</v>
+        <v>214947.942489048</v>
       </c>
       <c r="AE2" t="n">
-        <v>223342.5742295026</v>
+        <v>294101.2577473369</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.467454194563629e-06</v>
+        <v>3.557240906017074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.31770833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>202027.0724083747</v>
+        <v>266032.6464817255</v>
       </c>
     </row>
     <row r="3">
@@ -7418,28 +7418,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>148.0347406687189</v>
+        <v>199.664355241027</v>
       </c>
       <c r="AB3" t="n">
-        <v>202.5476630146862</v>
+        <v>273.1895794103229</v>
       </c>
       <c r="AC3" t="n">
-        <v>183.2167983340526</v>
+        <v>247.1167493754646</v>
       </c>
       <c r="AD3" t="n">
-        <v>148034.7406687189</v>
+        <v>199664.355241027</v>
       </c>
       <c r="AE3" t="n">
-        <v>202547.6630146862</v>
+        <v>273189.5794103229</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.6695449742983e-06</v>
+        <v>3.848587991602262e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>183216.7983340526</v>
+        <v>247116.7493754646</v>
       </c>
     </row>
     <row r="4">
@@ -7524,28 +7524,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>134.8993510103156</v>
+        <v>186.6142169286442</v>
       </c>
       <c r="AB4" t="n">
-        <v>184.5752433915746</v>
+        <v>255.3338044398605</v>
       </c>
       <c r="AC4" t="n">
-        <v>166.9596412153157</v>
+        <v>230.9651045074399</v>
       </c>
       <c r="AD4" t="n">
-        <v>134899.3510103156</v>
+        <v>186614.2169286442</v>
       </c>
       <c r="AE4" t="n">
-        <v>184575.2433915746</v>
+        <v>255333.8044398605</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.828407280474574e-06</v>
+        <v>4.077614125177313e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>166959.6412153157</v>
+        <v>230965.1045074399</v>
       </c>
     </row>
     <row r="5">
@@ -7630,28 +7630,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.1581141301516</v>
+        <v>175.2397017615479</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.8245621573001</v>
+        <v>239.7706909800538</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.566919733925</v>
+        <v>216.8873127532652</v>
       </c>
       <c r="AD5" t="n">
-        <v>132158.1141301516</v>
+        <v>175239.7017615479</v>
       </c>
       <c r="AE5" t="n">
-        <v>180824.5621573001</v>
+        <v>239770.6909800538</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.935007949341315e-06</v>
+        <v>4.231296516014406e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.3515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>163566.919733925</v>
+        <v>216887.3127532652</v>
       </c>
     </row>
     <row r="6">
@@ -7736,28 +7736,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5528534957497</v>
+        <v>172.634441127146</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.2599296213257</v>
+        <v>236.2060584440795</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.3424907241897</v>
+        <v>213.66288374353</v>
       </c>
       <c r="AD6" t="n">
-        <v>129552.8534957497</v>
+        <v>172634.441127146</v>
       </c>
       <c r="AE6" t="n">
-        <v>177259.9296213257</v>
+        <v>236206.0584440795</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.035866607141444e-06</v>
+        <v>4.376700853830714e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>160342.4907241897</v>
+        <v>213662.88374353</v>
       </c>
     </row>
     <row r="7">
@@ -7842,28 +7842,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.6629481005483</v>
+        <v>172.2924731643053</v>
       </c>
       <c r="AB7" t="n">
-        <v>165.096368864671</v>
+        <v>235.7381627907594</v>
       </c>
       <c r="AC7" t="n">
-        <v>149.3398031344815</v>
+        <v>213.2396433946669</v>
       </c>
       <c r="AD7" t="n">
-        <v>120662.9481005483</v>
+        <v>172292.4731643053</v>
       </c>
       <c r="AE7" t="n">
-        <v>165096.368864671</v>
+        <v>235738.1627907594</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.046743750056246e-06</v>
+        <v>4.392382043699356e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>149339.8031344815</v>
+        <v>213239.6433946669</v>
       </c>
     </row>
     <row r="8">
@@ -7948,28 +7948,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>118.6907621630036</v>
+        <v>161.8576011404204</v>
       </c>
       <c r="AB8" t="n">
-        <v>162.3979370582207</v>
+        <v>221.4607105336237</v>
       </c>
       <c r="AC8" t="n">
-        <v>146.8989058723651</v>
+        <v>200.3248111424176</v>
       </c>
       <c r="AD8" t="n">
-        <v>118690.7621630036</v>
+        <v>161857.6011404204</v>
       </c>
       <c r="AE8" t="n">
-        <v>162397.9370582207</v>
+        <v>221460.7105336237</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.113593830116318e-06</v>
+        <v>4.488757425209633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>146898.9058723651</v>
+        <v>200324.8111424176</v>
       </c>
     </row>
     <row r="9">
@@ -8054,28 +8054,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>117.1890786207076</v>
+        <v>160.3559175981244</v>
       </c>
       <c r="AB9" t="n">
-        <v>160.3432673860501</v>
+        <v>219.4060408614531</v>
       </c>
       <c r="AC9" t="n">
-        <v>145.0403309899588</v>
+        <v>198.4662362600113</v>
       </c>
       <c r="AD9" t="n">
-        <v>117189.0786207076</v>
+        <v>160355.9175981244</v>
       </c>
       <c r="AE9" t="n">
-        <v>160343.2673860501</v>
+        <v>219406.0408614531</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.16639232211907e-06</v>
+        <v>4.564875132254412e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.596354166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>145040.3309899588</v>
+        <v>198466.2362600113</v>
       </c>
     </row>
     <row r="10">
@@ -8160,28 +8160,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>115.7064831406277</v>
+        <v>158.7027299174523</v>
       </c>
       <c r="AB10" t="n">
-        <v>158.3147148427094</v>
+        <v>217.1440765432656</v>
       </c>
       <c r="AC10" t="n">
-        <v>143.2053806542625</v>
+        <v>196.420150641664</v>
       </c>
       <c r="AD10" t="n">
-        <v>115706.4831406276</v>
+        <v>158702.7299174523</v>
       </c>
       <c r="AE10" t="n">
-        <v>158314.7148427094</v>
+        <v>217144.0765432656</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.22371906675159e-06</v>
+        <v>4.647521059974119e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>143205.3806542626</v>
+        <v>196420.150641664</v>
       </c>
     </row>
     <row r="11">
@@ -8266,28 +8266,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>115.0519924376621</v>
+        <v>158.0482392144868</v>
       </c>
       <c r="AB11" t="n">
-        <v>157.4192117888205</v>
+        <v>216.2485734893766</v>
       </c>
       <c r="AC11" t="n">
-        <v>142.39534315499</v>
+        <v>195.6101131423915</v>
       </c>
       <c r="AD11" t="n">
-        <v>115051.9924376621</v>
+        <v>158048.2392144868</v>
       </c>
       <c r="AE11" t="n">
-        <v>157419.2117888205</v>
+        <v>216248.5734893766</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.243255909283112e-06</v>
+        <v>4.67568663061801e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>142395.34315499</v>
+        <v>195610.1131423915</v>
       </c>
     </row>
     <row r="12">
@@ -8372,28 +8372,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>115.0212109414714</v>
+        <v>158.017457718296</v>
       </c>
       <c r="AB12" t="n">
-        <v>157.3770951877485</v>
+        <v>216.2064568883047</v>
       </c>
       <c r="AC12" t="n">
-        <v>142.3572461032134</v>
+        <v>195.5720160906148</v>
       </c>
       <c r="AD12" t="n">
-        <v>115021.2109414714</v>
+        <v>158017.457718296</v>
       </c>
       <c r="AE12" t="n">
-        <v>157377.0951877485</v>
+        <v>216206.4568883047</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.244633058278763e-06</v>
+        <v>4.677672017318117e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>142357.2461032133</v>
+        <v>195572.0160906148</v>
       </c>
     </row>
   </sheetData>
@@ -8669,28 +8669,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>247.3396484550031</v>
+        <v>319.8874770151126</v>
       </c>
       <c r="AB2" t="n">
-        <v>338.4210188711465</v>
+        <v>437.6841584915579</v>
       </c>
       <c r="AC2" t="n">
-        <v>306.1225918070681</v>
+        <v>395.9121966986975</v>
       </c>
       <c r="AD2" t="n">
-        <v>247339.6484550031</v>
+        <v>319887.4770151125</v>
       </c>
       <c r="AE2" t="n">
-        <v>338421.0188711465</v>
+        <v>437684.1584915579</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.755523665694629e-06</v>
+        <v>2.46089695647728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.19791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>306122.5918070682</v>
+        <v>395912.1966986975</v>
       </c>
     </row>
     <row r="3">
@@ -8775,28 +8775,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9215663153896</v>
+        <v>276.3902598872327</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.3286804691315</v>
+        <v>378.1693470554067</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.5246800876145</v>
+        <v>342.07739533645</v>
       </c>
       <c r="AD3" t="n">
-        <v>212921.5663153896</v>
+        <v>276390.2598872327</v>
       </c>
       <c r="AE3" t="n">
-        <v>291328.6804691315</v>
+        <v>378169.3470554067</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.975067857608993e-06</v>
+        <v>2.768654490170536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.40104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>263524.6800876145</v>
+        <v>342077.39533645</v>
       </c>
     </row>
     <row r="4">
@@ -8881,28 +8881,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.5667820741037</v>
+        <v>257.9501347913716</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.2148549142856</v>
+        <v>352.9387543781788</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.8076827962395</v>
+        <v>319.2547750130838</v>
       </c>
       <c r="AD4" t="n">
-        <v>194566.7820741037</v>
+        <v>257950.1347913716</v>
       </c>
       <c r="AE4" t="n">
-        <v>266214.8549142856</v>
+        <v>352938.7543781788</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.138311947389146e-06</v>
+        <v>2.997490416198298e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.29427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>240807.6827962395</v>
+        <v>319254.7750130838</v>
       </c>
     </row>
     <row r="5">
@@ -8987,28 +8987,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>179.9830688322999</v>
+        <v>243.4516728955886</v>
       </c>
       <c r="AB5" t="n">
-        <v>246.2607750688396</v>
+        <v>333.101319185382</v>
       </c>
       <c r="AC5" t="n">
-        <v>222.7579923255096</v>
+        <v>301.310596793066</v>
       </c>
       <c r="AD5" t="n">
-        <v>179983.0688322999</v>
+        <v>243451.6728955886</v>
       </c>
       <c r="AE5" t="n">
-        <v>246260.7750688396</v>
+        <v>333101.319185382</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.254187952790281e-06</v>
+        <v>3.159925656800747e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.6171875</v>
       </c>
       <c r="AH5" t="n">
-        <v>222757.9923255096</v>
+        <v>301310.596793066</v>
       </c>
     </row>
     <row r="6">
@@ -9093,28 +9093,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>175.7920047519776</v>
+        <v>230.1815633355515</v>
       </c>
       <c r="AB6" t="n">
-        <v>240.5263762974475</v>
+        <v>314.9445698494327</v>
       </c>
       <c r="AC6" t="n">
-        <v>217.5708765245782</v>
+        <v>284.8867021305761</v>
       </c>
       <c r="AD6" t="n">
-        <v>175792.0047519776</v>
+        <v>230181.5633355515</v>
       </c>
       <c r="AE6" t="n">
-        <v>240526.3762974475</v>
+        <v>314944.5698494327</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349863184539693e-06</v>
+        <v>3.294043408229192e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.09635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>217570.8765245782</v>
+        <v>284886.7021305761</v>
       </c>
     </row>
     <row r="7">
@@ -9199,28 +9199,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>163.4086595679931</v>
+        <v>217.8834694975876</v>
       </c>
       <c r="AB7" t="n">
-        <v>223.582937102096</v>
+        <v>298.1177753067303</v>
       </c>
       <c r="AC7" t="n">
-        <v>202.2444953857593</v>
+        <v>269.6658332424695</v>
       </c>
       <c r="AD7" t="n">
-        <v>163408.6595679931</v>
+        <v>217883.4694975876</v>
       </c>
       <c r="AE7" t="n">
-        <v>223582.937102096</v>
+        <v>298117.7753067303</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.430644440472373e-06</v>
+        <v>3.407282751423398e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.69270833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>202244.4953857593</v>
+        <v>269665.8332424695</v>
       </c>
     </row>
     <row r="8">
@@ -9305,28 +9305,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>161.0548150987754</v>
+        <v>215.3590328277777</v>
       </c>
       <c r="AB8" t="n">
-        <v>220.362303255025</v>
+        <v>294.6637296848124</v>
       </c>
       <c r="AC8" t="n">
-        <v>199.3312343128637</v>
+        <v>266.5414368869228</v>
       </c>
       <c r="AD8" t="n">
-        <v>161054.8150987754</v>
+        <v>215359.0328277777</v>
       </c>
       <c r="AE8" t="n">
-        <v>220362.3032550249</v>
+        <v>294663.7296848124</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.494020273053243e-06</v>
+        <v>3.496123133675246e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.40625</v>
       </c>
       <c r="AH8" t="n">
-        <v>199331.2343128637</v>
+        <v>266541.4368869229</v>
       </c>
     </row>
     <row r="9">
@@ -9411,28 +9411,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>158.3013366516612</v>
+        <v>203.697101101541</v>
       </c>
       <c r="AB9" t="n">
-        <v>216.5948725687894</v>
+        <v>278.7073602088664</v>
       </c>
       <c r="AC9" t="n">
-        <v>195.9233619236991</v>
+        <v>252.1079209188508</v>
       </c>
       <c r="AD9" t="n">
-        <v>158301.3366516613</v>
+        <v>203697.101101541</v>
       </c>
       <c r="AE9" t="n">
-        <v>216594.8725687894</v>
+        <v>278707.3602088664</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.567834991910355e-06</v>
+        <v>3.599596769792147e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>11.06770833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>195923.3619236991</v>
+        <v>252107.9209188508</v>
       </c>
     </row>
     <row r="10">
@@ -9517,28 +9517,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>147.133394394072</v>
+        <v>201.5228634690948</v>
       </c>
       <c r="AB10" t="n">
-        <v>201.3144012771236</v>
+        <v>275.7324723595603</v>
       </c>
       <c r="AC10" t="n">
-        <v>182.1012373658289</v>
+        <v>249.4169521906003</v>
       </c>
       <c r="AD10" t="n">
-        <v>147133.3943940719</v>
+        <v>201522.8634690948</v>
       </c>
       <c r="AE10" t="n">
-        <v>201314.4012771236</v>
+        <v>275732.4723595603</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.621252389047781e-06</v>
+        <v>3.674477395218757e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>182101.2373658289</v>
+        <v>249416.9521906003</v>
       </c>
     </row>
     <row r="11">
@@ -9623,28 +9623,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.197029674767</v>
+        <v>201.5864987497899</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.401469875561</v>
+        <v>275.8195409579978</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.179996259433</v>
+        <v>249.4957110842045</v>
       </c>
       <c r="AD11" t="n">
-        <v>147197.0296747671</v>
+        <v>201586.4987497899</v>
       </c>
       <c r="AE11" t="n">
-        <v>201401.469875561</v>
+        <v>275819.5409579978</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.625969542678886e-06</v>
+        <v>3.681089911609659e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>182179.996259433</v>
+        <v>249495.7110842045</v>
       </c>
     </row>
     <row r="12">
@@ -9729,28 +9729,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>146.4051343144522</v>
+        <v>200.7946033894751</v>
       </c>
       <c r="AB12" t="n">
-        <v>200.3179637076212</v>
+        <v>274.736034790058</v>
       </c>
       <c r="AC12" t="n">
-        <v>181.1998983994505</v>
+        <v>248.515613224222</v>
       </c>
       <c r="AD12" t="n">
-        <v>146405.1343144522</v>
+        <v>200794.6033894751</v>
       </c>
       <c r="AE12" t="n">
-        <v>200317.9637076212</v>
+        <v>274736.034790058</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.647917410268057e-06</v>
+        <v>3.711856480928442e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH12" t="n">
-        <v>181199.8983994506</v>
+        <v>248515.613224222</v>
       </c>
     </row>
     <row r="13">
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>145.2082997250704</v>
+        <v>199.5977688000931</v>
       </c>
       <c r="AB13" t="n">
-        <v>198.6804018218141</v>
+        <v>273.0984729042509</v>
       </c>
       <c r="AC13" t="n">
-        <v>179.7186231216918</v>
+        <v>247.0343379464633</v>
       </c>
       <c r="AD13" t="n">
-        <v>145208.2997250704</v>
+        <v>199597.7688000932</v>
       </c>
       <c r="AE13" t="n">
-        <v>198680.4018218141</v>
+        <v>273098.4729042509</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.676220332054689e-06</v>
+        <v>3.751531579273857e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.625</v>
       </c>
       <c r="AH13" t="n">
-        <v>179718.6231216918</v>
+        <v>247034.3379464633</v>
       </c>
     </row>
     <row r="14">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>143.5391943033988</v>
+        <v>188.8496178987069</v>
       </c>
       <c r="AB14" t="n">
-        <v>196.39665814815</v>
+        <v>258.3923786660294</v>
       </c>
       <c r="AC14" t="n">
-        <v>177.6528367389871</v>
+        <v>233.7317727022001</v>
       </c>
       <c r="AD14" t="n">
-        <v>143539.1943033988</v>
+        <v>188849.6178987069</v>
       </c>
       <c r="AE14" t="n">
-        <v>196396.65814815</v>
+        <v>258392.3786660294</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.729069923662444e-06</v>
+        <v>3.825616253653413e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>177652.8367389871</v>
+        <v>233731.7727022</v>
       </c>
     </row>
     <row r="15">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>143.2662449658697</v>
+        <v>188.5766685611778</v>
       </c>
       <c r="AB15" t="n">
-        <v>196.0231968228679</v>
+        <v>258.0189173407473</v>
       </c>
       <c r="AC15" t="n">
-        <v>177.3150180384336</v>
+        <v>233.3939540016465</v>
       </c>
       <c r="AD15" t="n">
-        <v>143266.2449658697</v>
+        <v>188576.6685611778</v>
       </c>
       <c r="AE15" t="n">
-        <v>196023.1968228679</v>
+        <v>258018.9173407473</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.729266471730407e-06</v>
+        <v>3.825891775169702e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>177315.0180384336</v>
+        <v>233393.9540016465</v>
       </c>
     </row>
     <row r="16">
@@ -10153,28 +10153,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>142.413709936082</v>
+        <v>187.7241335313901</v>
       </c>
       <c r="AB16" t="n">
-        <v>194.856720783922</v>
+        <v>256.8524413018013</v>
       </c>
       <c r="AC16" t="n">
-        <v>176.2598688354848</v>
+        <v>232.3388047986978</v>
       </c>
       <c r="AD16" t="n">
-        <v>142413.709936082</v>
+        <v>187724.1335313901</v>
       </c>
       <c r="AE16" t="n">
-        <v>194856.7207839219</v>
+        <v>256852.4413018013</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.754228076361673e-06</v>
+        <v>3.860883007738227e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>176259.8688354848</v>
+        <v>232338.8047986978</v>
       </c>
     </row>
     <row r="17">
@@ -10259,28 +10259,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>141.2657176365001</v>
+        <v>186.5761412318083</v>
       </c>
       <c r="AB17" t="n">
-        <v>193.285987073789</v>
+        <v>255.2817075916684</v>
       </c>
       <c r="AC17" t="n">
-        <v>174.8390437461079</v>
+        <v>230.9179797093208</v>
       </c>
       <c r="AD17" t="n">
-        <v>141265.7176365001</v>
+        <v>186576.1412318083</v>
       </c>
       <c r="AE17" t="n">
-        <v>193285.987073789</v>
+        <v>255281.7075916684</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.78475854291855e-06</v>
+        <v>3.903680683268235e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.20833333333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>174839.0437461079</v>
+        <v>230917.9797093208</v>
       </c>
     </row>
     <row r="18">
@@ -10365,28 +10365,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>140.0633891638449</v>
+        <v>185.3738127591531</v>
       </c>
       <c r="AB18" t="n">
-        <v>191.6409082145144</v>
+        <v>253.6366287323937</v>
       </c>
       <c r="AC18" t="n">
-        <v>173.3509689042792</v>
+        <v>229.4299048674921</v>
       </c>
       <c r="AD18" t="n">
-        <v>140063.3891638449</v>
+        <v>185373.8127591531</v>
       </c>
       <c r="AE18" t="n">
-        <v>191640.9082145144</v>
+        <v>253636.6287323937</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.818193553146431e-06</v>
+        <v>3.950549954538938e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>173350.9689042792</v>
+        <v>229429.9048674921</v>
       </c>
     </row>
     <row r="19">
@@ -10471,28 +10471,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>140.0337931139057</v>
+        <v>185.3442167092138</v>
       </c>
       <c r="AB19" t="n">
-        <v>191.6004135933019</v>
+        <v>253.5961341111813</v>
       </c>
       <c r="AC19" t="n">
-        <v>173.3143390328807</v>
+        <v>229.3932749960937</v>
       </c>
       <c r="AD19" t="n">
-        <v>140033.7931139057</v>
+        <v>185344.2167092138</v>
       </c>
       <c r="AE19" t="n">
-        <v>191600.4135933019</v>
+        <v>253596.1341111813</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.808737407210003e-06</v>
+        <v>3.937294308255323e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>173314.3390328807</v>
+        <v>229393.2749960936</v>
       </c>
     </row>
     <row r="20">
@@ -10577,28 +10577,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>138.9368524375031</v>
+        <v>184.2472760328112</v>
       </c>
       <c r="AB20" t="n">
-        <v>190.0995309662414</v>
+        <v>252.0952514841208</v>
       </c>
       <c r="AC20" t="n">
-        <v>171.9566985372444</v>
+        <v>228.0356345004573</v>
       </c>
       <c r="AD20" t="n">
-        <v>138936.8524375031</v>
+        <v>184247.2760328112</v>
       </c>
       <c r="AE20" t="n">
-        <v>190099.5309662414</v>
+        <v>252095.2514841208</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.836712748883364e-06</v>
+        <v>3.976510204073593e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>171956.6985372444</v>
+        <v>228035.6345004574</v>
       </c>
     </row>
     <row r="21">
@@ -10683,28 +10683,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>138.8072282506958</v>
+        <v>184.1176518460039</v>
       </c>
       <c r="AB21" t="n">
-        <v>189.9221734352363</v>
+        <v>251.9178939531156</v>
       </c>
       <c r="AC21" t="n">
-        <v>171.7962677600754</v>
+        <v>227.8752037232884</v>
       </c>
       <c r="AD21" t="n">
-        <v>138807.2282506958</v>
+        <v>184117.6518460039</v>
       </c>
       <c r="AE21" t="n">
-        <v>189922.1734352363</v>
+        <v>251917.8939531156</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.837018490322417e-06</v>
+        <v>3.976938793098929e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH21" t="n">
-        <v>171796.2677600754</v>
+        <v>227875.2037232884</v>
       </c>
     </row>
     <row r="22">
@@ -10789,28 +10789,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>128.5042129834319</v>
+        <v>182.8083412038831</v>
       </c>
       <c r="AB22" t="n">
-        <v>175.8251334096189</v>
+        <v>250.126437369858</v>
       </c>
       <c r="AC22" t="n">
-        <v>159.0446294491786</v>
+        <v>226.2547212420112</v>
       </c>
       <c r="AD22" t="n">
-        <v>128504.2129834319</v>
+        <v>182808.3412038831</v>
       </c>
       <c r="AE22" t="n">
-        <v>175825.1334096189</v>
+        <v>250126.437369858</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.864513381162981e-06</v>
+        <v>4.015481191877384e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH22" t="n">
-        <v>159044.6294491786</v>
+        <v>226254.7212420112</v>
       </c>
     </row>
     <row r="23">
@@ -10895,28 +10895,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>128.504365982893</v>
+        <v>182.8084942033442</v>
       </c>
       <c r="AB23" t="n">
-        <v>175.8253427502314</v>
+        <v>250.1266467104705</v>
       </c>
       <c r="AC23" t="n">
-        <v>159.0448188106168</v>
+        <v>226.2549106034495</v>
       </c>
       <c r="AD23" t="n">
-        <v>128504.365982893</v>
+        <v>182808.4942033442</v>
       </c>
       <c r="AE23" t="n">
-        <v>175825.3427502314</v>
+        <v>250126.6467104706</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.862307675066955e-06</v>
+        <v>4.012389228194601e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>159044.8188106169</v>
+        <v>226254.9106034495</v>
       </c>
     </row>
     <row r="24">
@@ -11001,28 +11001,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>128.4026061700054</v>
+        <v>182.7067343904566</v>
       </c>
       <c r="AB24" t="n">
-        <v>175.6861104849125</v>
+        <v>249.9874144451516</v>
       </c>
       <c r="AC24" t="n">
-        <v>158.9188746772862</v>
+        <v>226.1289664701189</v>
       </c>
       <c r="AD24" t="n">
-        <v>128402.6061700054</v>
+        <v>182706.7343904566</v>
       </c>
       <c r="AE24" t="n">
-        <v>175686.1104849126</v>
+        <v>249987.4144451516</v>
       </c>
       <c r="AF24" t="n">
-        <v>2.861805385559938e-06</v>
+        <v>4.011685117652976e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH24" t="n">
-        <v>158918.8746772862</v>
+        <v>226128.9664701189</v>
       </c>
     </row>
     <row r="25">
@@ -11107,28 +11107,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>128.4440265076128</v>
+        <v>182.748154728064</v>
       </c>
       <c r="AB25" t="n">
-        <v>175.7427836181633</v>
+        <v>250.0440875784024</v>
       </c>
       <c r="AC25" t="n">
-        <v>158.9701390062408</v>
+        <v>226.1802307990734</v>
       </c>
       <c r="AD25" t="n">
-        <v>128444.0265076128</v>
+        <v>182748.154728064</v>
       </c>
       <c r="AE25" t="n">
-        <v>175742.7836181633</v>
+        <v>250044.0875784024</v>
       </c>
       <c r="AF25" t="n">
-        <v>2.861477805446667e-06</v>
+        <v>4.011225915125831e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH25" t="n">
-        <v>158970.1390062408</v>
+        <v>226180.2307990734</v>
       </c>
     </row>
   </sheetData>
@@ -11404,28 +11404,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.948769344416</v>
+        <v>145.6427531659821</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.8590479961313</v>
+        <v>199.2748401864024</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.415658152334</v>
+        <v>180.2563291230634</v>
       </c>
       <c r="AD2" t="n">
-        <v>102948.769344416</v>
+        <v>145642.7531659821</v>
       </c>
       <c r="AE2" t="n">
-        <v>140859.0479961313</v>
+        <v>199274.8401864024</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.436183398314658e-06</v>
+        <v>5.727913000476218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.54947916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127415.658152334</v>
+        <v>180256.3291230634</v>
       </c>
     </row>
   </sheetData>
@@ -11701,28 +11701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.585886559033</v>
+        <v>132.3561399708471</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.6260475261405</v>
+        <v>181.095509848823</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.4912107096534</v>
+        <v>163.8120085580465</v>
       </c>
       <c r="AD2" t="n">
-        <v>100585.886559033</v>
+        <v>132356.1399708471</v>
       </c>
       <c r="AE2" t="n">
-        <v>137626.0475261405</v>
+        <v>181095.509848823</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.734939503962464e-06</v>
+        <v>5.684229162810967e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>124491.2107096534</v>
+        <v>163812.0085580465</v>
       </c>
     </row>
     <row r="3">
@@ -11807,28 +11807,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.3684907673834</v>
+        <v>132.1387441791975</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.3285970131803</v>
+        <v>180.7980593358628</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.2221484561756</v>
+        <v>163.5429463045687</v>
       </c>
       <c r="AD3" t="n">
-        <v>100368.4907673834</v>
+        <v>132138.7441791975</v>
       </c>
       <c r="AE3" t="n">
-        <v>137328.5970131803</v>
+        <v>180798.0593358628</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.744162673540903e-06</v>
+        <v>5.698265965665657e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>124222.1484561757</v>
+        <v>163542.9463045687</v>
       </c>
     </row>
   </sheetData>
@@ -12104,28 +12104,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.0044136997077</v>
+        <v>227.7016806316299</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.5028065385818</v>
+        <v>311.5514849292254</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.6948193883086</v>
+        <v>281.8174484729277</v>
       </c>
       <c r="AD2" t="n">
-        <v>167004.4136997077</v>
+        <v>227701.6806316299</v>
       </c>
       <c r="AE2" t="n">
-        <v>228502.8065385818</v>
+        <v>311551.4849292254</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.38652882758545e-06</v>
+        <v>3.429005217018361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.64322916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>206694.8193883086</v>
+        <v>281817.4484729277</v>
       </c>
     </row>
     <row r="3">
@@ -12210,28 +12210,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>150.7491418443748</v>
+        <v>202.8485199470838</v>
       </c>
       <c r="AB3" t="n">
-        <v>206.2616264541449</v>
+        <v>277.5462940365803</v>
       </c>
       <c r="AC3" t="n">
-        <v>186.576306315431</v>
+        <v>251.0576652724806</v>
       </c>
       <c r="AD3" t="n">
-        <v>150749.1418443748</v>
+        <v>202848.5199470838</v>
       </c>
       <c r="AE3" t="n">
-        <v>206261.6264541449</v>
+        <v>277546.2940365802</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.602687915811589e-06</v>
+        <v>3.739586272091254e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>186576.306315431</v>
+        <v>251057.6652724806</v>
       </c>
     </row>
     <row r="4">
@@ -12316,28 +12316,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>137.5706925523786</v>
+        <v>189.584729800516</v>
       </c>
       <c r="AB4" t="n">
-        <v>188.2302907406947</v>
+        <v>259.3981912009324</v>
       </c>
       <c r="AC4" t="n">
-        <v>170.2658559753281</v>
+        <v>234.6415919004389</v>
       </c>
       <c r="AD4" t="n">
-        <v>137570.6925523786</v>
+        <v>189584.729800516</v>
       </c>
       <c r="AE4" t="n">
-        <v>188230.2907406947</v>
+        <v>259398.1912009324</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.754615418991535e-06</v>
+        <v>3.957878293118163e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>170265.8559753281</v>
+        <v>234641.5919004389</v>
       </c>
     </row>
     <row r="5">
@@ -12422,28 +12422,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.812570632826</v>
+        <v>178.3140599063218</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.4565066506133</v>
+        <v>243.9771634248403</v>
       </c>
       <c r="AC5" t="n">
-        <v>166.8522365422637</v>
+        <v>220.6923253717438</v>
       </c>
       <c r="AD5" t="n">
-        <v>134812.570632826</v>
+        <v>178314.0599063218</v>
       </c>
       <c r="AE5" t="n">
-        <v>184456.5066506133</v>
+        <v>243977.1634248403</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.857691709455135e-06</v>
+        <v>4.105980060700072e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>166852.2365422637</v>
+        <v>220692.3253717438</v>
       </c>
     </row>
     <row r="6">
@@ -12528,28 +12528,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>132.2767635767385</v>
+        <v>175.6076606496421</v>
       </c>
       <c r="AB6" t="n">
-        <v>180.9869035645642</v>
+        <v>240.2741485639444</v>
       </c>
       <c r="AC6" t="n">
-        <v>163.7137675051275</v>
+        <v>217.3427210519566</v>
       </c>
       <c r="AD6" t="n">
-        <v>132276.7635767384</v>
+        <v>175607.6606496421</v>
       </c>
       <c r="AE6" t="n">
-        <v>180986.9035645642</v>
+        <v>240274.1485639444</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.952290264568247e-06</v>
+        <v>4.24190087391457e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>163713.7675051275</v>
+        <v>217342.7210519566</v>
       </c>
     </row>
     <row r="7">
@@ -12634,28 +12634,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.3419605710905</v>
+        <v>173.2706569646563</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.0254236827824</v>
+        <v>237.0765570208224</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.1801902646892</v>
+        <v>214.4503031578613</v>
       </c>
       <c r="AD7" t="n">
-        <v>121341.9605710905</v>
+        <v>173270.6569646563</v>
       </c>
       <c r="AE7" t="n">
-        <v>166025.4236827824</v>
+        <v>237076.5570208224</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.032157017269033e-06</v>
+        <v>4.356654782818487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>150180.1902646892</v>
+        <v>214450.3031578613</v>
       </c>
     </row>
     <row r="8">
@@ -12740,28 +12740,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.7034303169138</v>
+        <v>164.119578735838</v>
       </c>
       <c r="AB8" t="n">
-        <v>165.1517584190516</v>
+        <v>224.555648071081</v>
       </c>
       <c r="AC8" t="n">
-        <v>149.3899063875317</v>
+        <v>203.1243721850732</v>
       </c>
       <c r="AD8" t="n">
-        <v>120703.4303169138</v>
+        <v>164119.578735838</v>
       </c>
       <c r="AE8" t="n">
-        <v>165151.7584190516</v>
+        <v>224555.648071081</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.060995215387501e-06</v>
+        <v>4.398089996445335e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>149389.9063875318</v>
+        <v>203124.3721850732</v>
       </c>
     </row>
     <row r="9">
@@ -12846,28 +12846,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>119.6452139913685</v>
+        <v>163.0613624102927</v>
       </c>
       <c r="AB9" t="n">
-        <v>163.7038601572319</v>
+        <v>223.1077498092612</v>
       </c>
       <c r="AC9" t="n">
-        <v>148.0801935036816</v>
+        <v>201.814659301223</v>
       </c>
       <c r="AD9" t="n">
-        <v>119645.2139913685</v>
+        <v>163061.3624102927</v>
       </c>
       <c r="AE9" t="n">
-        <v>163703.8601572319</v>
+        <v>223107.7498092612</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.086938012088452e-06</v>
+        <v>4.435365048061456e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>148080.1935036816</v>
+        <v>201814.659301223</v>
       </c>
     </row>
     <row r="10">
@@ -12952,28 +12952,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>118.361294034852</v>
+        <v>161.7774424537761</v>
       </c>
       <c r="AB10" t="n">
-        <v>161.947144230176</v>
+        <v>221.3510338822053</v>
       </c>
       <c r="AC10" t="n">
-        <v>146.4911360791371</v>
+        <v>200.2256018766785</v>
       </c>
       <c r="AD10" t="n">
-        <v>118361.294034852</v>
+        <v>161777.4424537761</v>
       </c>
       <c r="AE10" t="n">
-        <v>161947.144230176</v>
+        <v>221351.0338822053</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.138290851629531e-06</v>
+        <v>4.509149681483723e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH10" t="n">
-        <v>146491.1360791371</v>
+        <v>200225.6018766785</v>
       </c>
     </row>
     <row r="11">
@@ -13058,28 +13058,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>117.3160546191067</v>
+        <v>160.7322030380309</v>
       </c>
       <c r="AB11" t="n">
-        <v>160.5170015488454</v>
+        <v>219.9208912008748</v>
       </c>
       <c r="AC11" t="n">
-        <v>145.1974842080944</v>
+        <v>198.9319500056358</v>
       </c>
       <c r="AD11" t="n">
-        <v>117316.0546191067</v>
+        <v>160732.2030380309</v>
       </c>
       <c r="AE11" t="n">
-        <v>160517.0015488454</v>
+        <v>219920.8912008748</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.164256811541822e-06</v>
+        <v>4.546458014395931e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.53125</v>
       </c>
       <c r="AH11" t="n">
-        <v>145197.4842080944</v>
+        <v>198931.9500056358</v>
       </c>
     </row>
     <row r="12">
@@ -13164,28 +13164,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>116.53931666992</v>
+        <v>159.784872888252</v>
       </c>
       <c r="AB12" t="n">
-        <v>159.4542344195089</v>
+        <v>218.6247122966914</v>
       </c>
       <c r="AC12" t="n">
-        <v>144.2361460819784</v>
+        <v>197.7594765968688</v>
       </c>
       <c r="AD12" t="n">
-        <v>116539.31666992</v>
+        <v>159784.872888252</v>
       </c>
       <c r="AE12" t="n">
-        <v>159454.2344195089</v>
+        <v>218624.7122966914</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.186979921866495e-06</v>
+        <v>4.579106965856123e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.466145833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>144236.1460819784</v>
+        <v>197759.4765968687</v>
       </c>
     </row>
     <row r="13">
@@ -13270,28 +13270,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>116.4893282426986</v>
+        <v>159.7348844610305</v>
       </c>
       <c r="AB13" t="n">
-        <v>159.3858380480508</v>
+        <v>218.5563159252333</v>
       </c>
       <c r="AC13" t="n">
-        <v>144.1742773642173</v>
+        <v>197.6976078791076</v>
       </c>
       <c r="AD13" t="n">
-        <v>116489.3282426986</v>
+        <v>159734.8844610305</v>
       </c>
       <c r="AE13" t="n">
-        <v>159385.8380480508</v>
+        <v>218556.3159252333</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.185891250933508e-06</v>
+        <v>4.577542744940089e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.466145833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>144174.2773642173</v>
+        <v>197697.6078791076</v>
       </c>
     </row>
   </sheetData>
@@ -13567,28 +13567,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>110.1757918836029</v>
+        <v>159.0024370926461</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.7473790679742</v>
+        <v>217.5541491225129</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.3602607850432</v>
+        <v>196.7910864694886</v>
       </c>
       <c r="AD2" t="n">
-        <v>110175.7918836029</v>
+        <v>159002.4370926461</v>
       </c>
       <c r="AE2" t="n">
-        <v>150747.3790679742</v>
+        <v>217554.1491225129</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.299587769448874e-06</v>
+        <v>4.925989866872284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>136360.2607850432</v>
+        <v>196791.0864694887</v>
       </c>
     </row>
     <row r="3">
@@ -13673,28 +13673,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>106.7404909132328</v>
+        <v>147.401004477796</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.0470487255335</v>
+        <v>201.6805571997983</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.1085233735284</v>
+        <v>182.4324478811467</v>
       </c>
       <c r="AD3" t="n">
-        <v>106740.4909132328</v>
+        <v>147401.004477796</v>
       </c>
       <c r="AE3" t="n">
-        <v>146047.0487255335</v>
+        <v>201680.5571997983</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.49328607637635e-06</v>
+        <v>5.215164140698144e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>132108.5233735284</v>
+        <v>182432.4478811467</v>
       </c>
     </row>
     <row r="4">
@@ -13779,28 +13779,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.3852781026655</v>
+        <v>137.0502522233409</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.824542653461</v>
+        <v>187.5182013222987</v>
       </c>
       <c r="AC4" t="n">
-        <v>129.1935687581579</v>
+        <v>169.6217273715998</v>
       </c>
       <c r="AD4" t="n">
-        <v>104385.2781026655</v>
+        <v>137050.2522233409</v>
       </c>
       <c r="AE4" t="n">
-        <v>142824.542653461</v>
+        <v>187518.2013222987</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.626032305682363e-06</v>
+        <v>5.413342406020101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.036458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>129193.5687581579</v>
+        <v>169621.7273715998</v>
       </c>
     </row>
     <row r="5">
@@ -13885,28 +13885,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>104.6601315439395</v>
+        <v>137.3251056646148</v>
       </c>
       <c r="AB5" t="n">
-        <v>143.2006092574899</v>
+        <v>187.8942679263276</v>
       </c>
       <c r="AC5" t="n">
-        <v>129.5337440933111</v>
+        <v>169.9619027067531</v>
       </c>
       <c r="AD5" t="n">
-        <v>104660.1315439395</v>
+        <v>137325.1056646148</v>
       </c>
       <c r="AE5" t="n">
-        <v>143200.6092574899</v>
+        <v>187894.2679263276</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.595946179047913e-06</v>
+        <v>5.36842650582585e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>129533.7440933111</v>
+        <v>169961.9027067531</v>
       </c>
     </row>
   </sheetData>
@@ -14182,28 +14182,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>212.1601070677199</v>
+        <v>283.7243843653089</v>
       </c>
       <c r="AB2" t="n">
-        <v>290.2868183332592</v>
+        <v>388.2042197250468</v>
       </c>
       <c r="AC2" t="n">
-        <v>262.5822518117268</v>
+        <v>351.1545538425319</v>
       </c>
       <c r="AD2" t="n">
-        <v>212160.1070677199</v>
+        <v>283724.3843653089</v>
       </c>
       <c r="AE2" t="n">
-        <v>290286.8183332592</v>
+        <v>388204.2197250468</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.943870362629075e-06</v>
+        <v>2.744858523039286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>262582.2518117268</v>
+        <v>351154.5538425319</v>
       </c>
     </row>
     <row r="3">
@@ -14288,28 +14288,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.9104667752326</v>
+        <v>253.4332904577778</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.2121230171261</v>
+        <v>346.7586086918506</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.2824046099651</v>
+        <v>313.6644537571677</v>
       </c>
       <c r="AD3" t="n">
-        <v>190910.4667752326</v>
+        <v>253433.2904577778</v>
       </c>
       <c r="AE3" t="n">
-        <v>261212.1230171261</v>
+        <v>346758.6086918506</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.159579275567738e-06</v>
+        <v>3.049452110944206e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.41145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>236282.4046099651</v>
+        <v>313664.4537571677</v>
       </c>
     </row>
     <row r="4">
@@ -14394,28 +14394,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.483388107754</v>
+        <v>228.1353503758512</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.73586927273</v>
+        <v>312.1448510054275</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.9512529773067</v>
+        <v>282.3541845236119</v>
       </c>
       <c r="AD4" t="n">
-        <v>174483.388107754</v>
+        <v>228135.3503758512</v>
       </c>
       <c r="AE4" t="n">
-        <v>238735.86927273</v>
+        <v>312144.8510054275</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.322239181469537e-06</v>
+        <v>3.279137401514438e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>215951.2529773067</v>
+        <v>282354.1845236119</v>
       </c>
     </row>
     <row r="5">
@@ -14500,28 +14500,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.1380198557115</v>
+        <v>223.6607540297057</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.4761476741997</v>
+        <v>306.0225108793757</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.4342135804541</v>
+        <v>276.8161519464301</v>
       </c>
       <c r="AD5" t="n">
-        <v>161138.0198557115</v>
+        <v>223660.7540297057</v>
       </c>
       <c r="AE5" t="n">
-        <v>220476.1476741997</v>
+        <v>306022.5108793757</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.430916275516557e-06</v>
+        <v>3.432595807789355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.9140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>199434.2135804541</v>
+        <v>276816.1519464302</v>
       </c>
     </row>
     <row r="6">
@@ -14606,28 +14606,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.5505555598297</v>
+        <v>211.1171769733553</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.5676207568218</v>
+        <v>288.8598353673218</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.9941495829084</v>
+        <v>261.2914580972749</v>
       </c>
       <c r="AD6" t="n">
-        <v>157550.5555598297</v>
+        <v>211117.1769733553</v>
       </c>
       <c r="AE6" t="n">
-        <v>215567.6207568218</v>
+        <v>288859.8353673218</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.531233593098421e-06</v>
+        <v>3.574249721273894e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.43229166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194994.1495829084</v>
+        <v>261291.4580972749</v>
       </c>
     </row>
     <row r="7">
@@ -14712,28 +14712,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.6507836332943</v>
+        <v>199.4318844869435</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.6000248780295</v>
+        <v>272.8715026687003</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.405215486231</v>
+        <v>246.8290294316387</v>
       </c>
       <c r="AD7" t="n">
-        <v>154650.7836332943</v>
+        <v>199431.8844869435</v>
       </c>
       <c r="AE7" t="n">
-        <v>211600.0248780295</v>
+        <v>272871.5026687002</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.618099674612681e-06</v>
+        <v>3.696909703539872e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.0546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>191405.215486231</v>
+        <v>246829.0294316387</v>
       </c>
     </row>
     <row r="8">
@@ -14818,28 +14818,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>143.8205623748846</v>
+        <v>197.4724351344308</v>
       </c>
       <c r="AB8" t="n">
-        <v>196.7816383566399</v>
+        <v>270.1904976197891</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.0010749767021</v>
+        <v>244.4038957417807</v>
       </c>
       <c r="AD8" t="n">
-        <v>143820.5623748846</v>
+        <v>197472.4351344308</v>
       </c>
       <c r="AE8" t="n">
-        <v>196781.6383566399</v>
+        <v>270190.4976197892</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666857626176739e-06</v>
+        <v>3.765758779841201e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>178001.074976702</v>
+        <v>244403.8957417807</v>
       </c>
     </row>
     <row r="9">
@@ -14924,28 +14924,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>141.42011216374</v>
+        <v>186.2864643634097</v>
       </c>
       <c r="AB9" t="n">
-        <v>193.4972364773643</v>
+        <v>254.8853589206842</v>
       </c>
       <c r="AC9" t="n">
-        <v>175.0301318030964</v>
+        <v>230.5594579992164</v>
       </c>
       <c r="AD9" t="n">
-        <v>141420.11216374</v>
+        <v>186286.4643634097</v>
       </c>
       <c r="AE9" t="n">
-        <v>193497.2364773643</v>
+        <v>254885.3589206842</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.743185053317373e-06</v>
+        <v>3.873537566408671e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH9" t="n">
-        <v>175030.1318030964</v>
+        <v>230559.4579992164</v>
       </c>
     </row>
     <row r="10">
@@ -15030,28 +15030,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>141.6234091171483</v>
+        <v>186.489761316818</v>
       </c>
       <c r="AB10" t="n">
-        <v>193.7753963378459</v>
+        <v>255.1635187811659</v>
       </c>
       <c r="AC10" t="n">
-        <v>175.2817444768936</v>
+        <v>230.8110706730136</v>
       </c>
       <c r="AD10" t="n">
-        <v>141623.4091171483</v>
+        <v>186489.761316818</v>
       </c>
       <c r="AE10" t="n">
-        <v>193775.3963378459</v>
+        <v>255163.5187811659</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.74345185469392e-06</v>
+        <v>3.873914305540278e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH10" t="n">
-        <v>175281.7444768936</v>
+        <v>230811.0706730136</v>
       </c>
     </row>
     <row r="11">
@@ -15136,28 +15136,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>139.7996498028522</v>
+        <v>184.4954098019298</v>
       </c>
       <c r="AB11" t="n">
-        <v>191.2800483854449</v>
+        <v>252.434759053918</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.0245490308261</v>
+        <v>228.342739944295</v>
       </c>
       <c r="AD11" t="n">
-        <v>139799.6498028522</v>
+        <v>184495.4098019298</v>
       </c>
       <c r="AE11" t="n">
-        <v>191280.0483854449</v>
+        <v>252434.759053918</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.800191614106358e-06</v>
+        <v>3.954034160862208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>173024.5490308261</v>
+        <v>228342.739944295</v>
       </c>
     </row>
     <row r="12">
@@ -15242,28 +15242,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.8753613266647</v>
+        <v>183.5711213257423</v>
       </c>
       <c r="AB12" t="n">
-        <v>190.0153961155961</v>
+        <v>251.1701067840692</v>
       </c>
       <c r="AC12" t="n">
-        <v>171.8805933986606</v>
+        <v>227.1987843121296</v>
       </c>
       <c r="AD12" t="n">
-        <v>138875.3613266647</v>
+        <v>183571.1213257423</v>
       </c>
       <c r="AE12" t="n">
-        <v>190015.3961155961</v>
+        <v>251170.1067840692</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.826493783144333e-06</v>
+        <v>3.991174360253211e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>171880.5933986606</v>
+        <v>227198.7843121296</v>
       </c>
     </row>
     <row r="13">
@@ -15348,28 +15348,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>137.985056250625</v>
+        <v>182.6808162497026</v>
       </c>
       <c r="AB13" t="n">
-        <v>188.7972414330713</v>
+        <v>249.9519521015444</v>
       </c>
       <c r="AC13" t="n">
-        <v>170.7786976893448</v>
+        <v>226.0968886028137</v>
       </c>
       <c r="AD13" t="n">
-        <v>137985.056250625</v>
+        <v>182680.8162497026</v>
       </c>
       <c r="AE13" t="n">
-        <v>188797.2414330713</v>
+        <v>249951.9521015444</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.850839408754294e-06</v>
+        <v>4.025551806012425e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH13" t="n">
-        <v>170778.6976893448</v>
+        <v>226096.8886028137</v>
       </c>
     </row>
     <row r="14">
@@ -15454,28 +15454,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>136.9387987073811</v>
+        <v>181.6345587064586</v>
       </c>
       <c r="AB14" t="n">
-        <v>187.3657057047805</v>
+        <v>248.5204163732536</v>
       </c>
       <c r="AC14" t="n">
-        <v>169.4837857217886</v>
+        <v>224.8019766352575</v>
       </c>
       <c r="AD14" t="n">
-        <v>136938.7987073811</v>
+        <v>181634.5587064587</v>
       </c>
       <c r="AE14" t="n">
-        <v>187365.7057047805</v>
+        <v>248520.4163732536</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.879364922596832e-06</v>
+        <v>4.065831498166827e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>169483.7857217886</v>
+        <v>224801.9766352575</v>
       </c>
     </row>
     <row r="15">
@@ -15560,28 +15560,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>126.8248270313708</v>
+        <v>180.3913589363454</v>
       </c>
       <c r="AB15" t="n">
-        <v>173.5273234607309</v>
+        <v>246.8194156016824</v>
       </c>
       <c r="AC15" t="n">
-        <v>156.9661192568151</v>
+        <v>223.263316989955</v>
       </c>
       <c r="AD15" t="n">
-        <v>126824.8270313708</v>
+        <v>180391.3589363454</v>
       </c>
       <c r="AE15" t="n">
-        <v>173527.3234607309</v>
+        <v>246819.4156016824</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.909713579179111e-06</v>
+        <v>4.108685574387216e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>156966.1192568151</v>
+        <v>223263.316989955</v>
       </c>
     </row>
     <row r="16">
@@ -15666,28 +15666,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>125.5531614603742</v>
+        <v>170.3341728054724</v>
       </c>
       <c r="AB16" t="n">
-        <v>171.7873745245687</v>
+        <v>233.058729845691</v>
       </c>
       <c r="AC16" t="n">
-        <v>155.392228605086</v>
+        <v>210.8159317692673</v>
       </c>
       <c r="AD16" t="n">
-        <v>125553.1614603742</v>
+        <v>170334.1728054724</v>
       </c>
       <c r="AE16" t="n">
-        <v>171787.3745245687</v>
+        <v>233058.729845691</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.944931360883382e-06</v>
+        <v>4.158415139759448e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.830729166666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>155392.228605086</v>
+        <v>210815.9317692673</v>
       </c>
     </row>
     <row r="17">
@@ -15772,28 +15772,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>125.7841793467123</v>
+        <v>179.3507112516868</v>
       </c>
       <c r="AB17" t="n">
-        <v>172.1034633884461</v>
+        <v>245.3955555293977</v>
       </c>
       <c r="AC17" t="n">
-        <v>155.6781503914286</v>
+        <v>221.9753481245685</v>
       </c>
       <c r="AD17" t="n">
-        <v>125784.1793467123</v>
+        <v>179350.7112516869</v>
       </c>
       <c r="AE17" t="n">
-        <v>172103.4633884461</v>
+        <v>245395.5555293977</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.920652435617559e-06</v>
+        <v>4.124131878783137e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>155678.1503914286</v>
+        <v>221975.3481245685</v>
       </c>
     </row>
     <row r="18">
@@ -15878,28 +15878,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>124.7356294330879</v>
+        <v>169.516640778186</v>
       </c>
       <c r="AB18" t="n">
-        <v>170.6687911378685</v>
+        <v>231.9401464589908</v>
       </c>
       <c r="AC18" t="n">
-        <v>154.3804012468705</v>
+        <v>209.8041044110517</v>
       </c>
       <c r="AD18" t="n">
-        <v>124735.6294330879</v>
+        <v>169516.640778186</v>
       </c>
       <c r="AE18" t="n">
-        <v>170668.7911378685</v>
+        <v>231940.1464589908</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>4.173170755747421e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>154380.4012468705</v>
+        <v>209804.1044110517</v>
       </c>
     </row>
     <row r="19">
@@ -15984,28 +15984,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>124.3659298661747</v>
+        <v>169.1469412112728</v>
       </c>
       <c r="AB19" t="n">
-        <v>170.1629518804243</v>
+        <v>231.4343072015467</v>
       </c>
       <c r="AC19" t="n">
-        <v>153.9228385782068</v>
+        <v>209.3465417423881</v>
       </c>
       <c r="AD19" t="n">
-        <v>124365.9298661747</v>
+        <v>169146.9412112728</v>
       </c>
       <c r="AE19" t="n">
-        <v>170162.9518804243</v>
+        <v>231434.3072015467</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.959516502801313e-06</v>
+        <v>4.179010212287342e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>153922.8385782068</v>
+        <v>209346.5417423881</v>
       </c>
     </row>
     <row r="20">
@@ -16090,28 +16090,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>124.2607246418393</v>
+        <v>169.0417359869374</v>
       </c>
       <c r="AB20" t="n">
-        <v>170.0190054511617</v>
+        <v>231.290360772284</v>
       </c>
       <c r="AC20" t="n">
-        <v>153.7926301941229</v>
+        <v>209.2163333583042</v>
       </c>
       <c r="AD20" t="n">
-        <v>124260.7246418393</v>
+        <v>169041.7359869374</v>
       </c>
       <c r="AE20" t="n">
-        <v>170019.0054511617</v>
+        <v>231290.360772284</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.955381081464827e-06</v>
+        <v>4.173170755747421e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>153792.6301941229</v>
+        <v>209216.3333583042</v>
       </c>
     </row>
   </sheetData>
@@ -16387,28 +16387,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.6864837734684</v>
+        <v>181.7736910570339</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.1252096315091</v>
+        <v>248.7107833933968</v>
       </c>
       <c r="AC2" t="n">
-        <v>172.8844878702483</v>
+        <v>224.97417529418</v>
       </c>
       <c r="AD2" t="n">
-        <v>139686.4837734684</v>
+        <v>181773.691057034</v>
       </c>
       <c r="AE2" t="n">
-        <v>191125.2096315091</v>
+        <v>248710.7833933968</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.857661560063842e-06</v>
+        <v>4.183509021697935e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>172884.4878702483</v>
+        <v>224974.1752941801</v>
       </c>
     </row>
     <row r="3">
@@ -16493,28 +16493,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>126.7886767894774</v>
+        <v>168.7905432184714</v>
       </c>
       <c r="AB3" t="n">
-        <v>173.4778611049361</v>
+        <v>230.9466677446262</v>
       </c>
       <c r="AC3" t="n">
-        <v>156.9213775188366</v>
+        <v>208.9054419108296</v>
       </c>
       <c r="AD3" t="n">
-        <v>126788.6767894774</v>
+        <v>168790.5432184713</v>
       </c>
       <c r="AE3" t="n">
-        <v>173477.8611049361</v>
+        <v>230946.6677446262</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.047525205502949e-06</v>
+        <v>4.461462256149261e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH3" t="n">
-        <v>156921.3775188366</v>
+        <v>208905.4419108296</v>
       </c>
     </row>
     <row r="4">
@@ -16599,28 +16599,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.5115450241852</v>
+        <v>157.5986627991998</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.0479919117303</v>
+        <v>215.6334432040696</v>
       </c>
       <c r="AC4" t="n">
-        <v>142.964113385468</v>
+        <v>195.0536900281732</v>
       </c>
       <c r="AD4" t="n">
-        <v>115511.5450241852</v>
+        <v>157598.6627991998</v>
       </c>
       <c r="AE4" t="n">
-        <v>158047.9919117303</v>
+        <v>215633.4432040695</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.175767075136307e-06</v>
+        <v>4.649203528967647e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>142964.113385468</v>
+        <v>195053.6900281732</v>
       </c>
     </row>
     <row r="5">
@@ -16705,28 +16705,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.4427796878428</v>
+        <v>154.3593052622652</v>
       </c>
       <c r="AB5" t="n">
-        <v>153.8491717941771</v>
+        <v>211.2012113116695</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.1660227668517</v>
+        <v>191.0444641269059</v>
       </c>
       <c r="AD5" t="n">
-        <v>112442.7796878428</v>
+        <v>154359.3052622652</v>
       </c>
       <c r="AE5" t="n">
-        <v>153849.1717941771</v>
+        <v>211201.2113116695</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.31719291404472e-06</v>
+        <v>4.856245636837596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>139166.0227668517</v>
+        <v>191044.4641269059</v>
       </c>
     </row>
     <row r="6">
@@ -16811,28 +16811,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.0910711149927</v>
+        <v>154.007596689415</v>
       </c>
       <c r="AB6" t="n">
-        <v>153.3679486085166</v>
+        <v>210.719988126009</v>
       </c>
       <c r="AC6" t="n">
-        <v>138.7307268466295</v>
+        <v>190.6091682066836</v>
       </c>
       <c r="AD6" t="n">
-        <v>112091.0711149927</v>
+        <v>154007.596689415</v>
       </c>
       <c r="AE6" t="n">
-        <v>153367.9486085166</v>
+        <v>210719.988126009</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.32431612088747e-06</v>
+        <v>4.866673743687799e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>138730.7268466295</v>
+        <v>190609.1682066837</v>
       </c>
     </row>
     <row r="7">
@@ -16917,28 +16917,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>110.1940709919678</v>
+        <v>143.8638547205305</v>
       </c>
       <c r="AB7" t="n">
-        <v>150.7723893504563</v>
+        <v>196.8408728538762</v>
       </c>
       <c r="AC7" t="n">
-        <v>136.3828841212674</v>
+        <v>178.0546562166581</v>
       </c>
       <c r="AD7" t="n">
-        <v>110194.0709919678</v>
+        <v>143863.8547205305</v>
       </c>
       <c r="AE7" t="n">
-        <v>150772.3893504563</v>
+        <v>196840.8728538761</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.406776295016244e-06</v>
+        <v>4.987392336546921e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.231770833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>136382.8841212674</v>
+        <v>178054.6562166581</v>
       </c>
     </row>
     <row r="8">
@@ -17023,28 +17023,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>110.0113217095925</v>
+        <v>151.9278472840148</v>
       </c>
       <c r="AB8" t="n">
-        <v>150.5223437199812</v>
+        <v>207.8743832374736</v>
       </c>
       <c r="AC8" t="n">
-        <v>136.1567024948235</v>
+        <v>188.0351438548776</v>
       </c>
       <c r="AD8" t="n">
-        <v>110011.3217095924</v>
+        <v>151927.8472840148</v>
       </c>
       <c r="AE8" t="n">
-        <v>150522.3437199812</v>
+        <v>207874.3832374736</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.401971148705372e-06</v>
+        <v>4.980357783112377e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>136156.7024948235</v>
+        <v>188035.1438548776</v>
       </c>
     </row>
   </sheetData>
@@ -17320,28 +17320,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.067912594183</v>
+        <v>245.3493506822403</v>
       </c>
       <c r="AB2" t="n">
-        <v>251.8498385144334</v>
+        <v>335.697805652713</v>
       </c>
       <c r="AC2" t="n">
-        <v>227.8136434001575</v>
+        <v>303.6592782361474</v>
       </c>
       <c r="AD2" t="n">
-        <v>184067.912594183</v>
+        <v>245349.3506822403</v>
       </c>
       <c r="AE2" t="n">
-        <v>251849.8385144334</v>
+        <v>335697.805652713</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.230278670960478e-06</v>
+        <v>3.184417790071703e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>227813.6434001575</v>
+        <v>303659.2782361474</v>
       </c>
     </row>
     <row r="3">
@@ -17426,28 +17426,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.3387416334642</v>
+        <v>218.926659106286</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.592004650169</v>
+        <v>299.5451133516282</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.8709431538071</v>
+        <v>270.9569481476443</v>
       </c>
       <c r="AD3" t="n">
-        <v>166338.7416334642</v>
+        <v>218926.659106286</v>
       </c>
       <c r="AE3" t="n">
-        <v>227592.004650169</v>
+        <v>299545.1133516282</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449297807559671e-06</v>
+        <v>3.497135857115879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>205870.9431538071</v>
+        <v>270956.9481476443</v>
       </c>
     </row>
     <row r="4">
@@ -17532,28 +17532,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.5055534569485</v>
+        <v>205.0081300751987</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.6648263098787</v>
+        <v>280.5011678891403</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.7501481498465</v>
+        <v>253.7305301117448</v>
       </c>
       <c r="AD4" t="n">
-        <v>152505.5534569485</v>
+        <v>205008.1300751987</v>
       </c>
       <c r="AE4" t="n">
-        <v>208664.8263098787</v>
+        <v>280501.1678891403</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.594990962633264e-06</v>
+        <v>3.705158236089815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.45833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>188750.1481498465</v>
+        <v>253730.5301117448</v>
       </c>
     </row>
     <row r="5">
@@ -17638,28 +17638,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>140.054538470885</v>
+        <v>192.6423664351558</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.6287983059416</v>
+        <v>263.5817845378524</v>
       </c>
       <c r="AC5" t="n">
-        <v>173.3400147483842</v>
+        <v>238.4259089609948</v>
       </c>
       <c r="AD5" t="n">
-        <v>140054.538470885</v>
+        <v>192642.3664351558</v>
       </c>
       <c r="AE5" t="n">
-        <v>191628.7983059416</v>
+        <v>263581.7845378524</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.713677693004247e-06</v>
+        <v>3.874620528206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>173340.0147483842</v>
+        <v>238425.9089609948</v>
       </c>
     </row>
     <row r="6">
@@ -17744,28 +17744,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.5362315689224</v>
+        <v>190.1240595331932</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.1831397028186</v>
+        <v>260.1361259347294</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.22320496633</v>
+        <v>235.3090991789406</v>
       </c>
       <c r="AD6" t="n">
-        <v>137536.2315689224</v>
+        <v>190124.0595331932</v>
       </c>
       <c r="AE6" t="n">
-        <v>188183.1397028186</v>
+        <v>260136.1259347294</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.801545595523561e-06</v>
+        <v>4.000079339968877e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>170223.20496633</v>
+        <v>235309.0991789406</v>
       </c>
     </row>
     <row r="7">
@@ -17850,28 +17850,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>135.1099787811737</v>
+        <v>178.9190347841885</v>
       </c>
       <c r="AB7" t="n">
-        <v>184.8634335999039</v>
+        <v>244.804916742345</v>
       </c>
       <c r="AC7" t="n">
-        <v>167.2203269546397</v>
+        <v>221.4410790743852</v>
       </c>
       <c r="AD7" t="n">
-        <v>135109.9787811737</v>
+        <v>178919.0347841885</v>
       </c>
       <c r="AE7" t="n">
-        <v>184863.4335999039</v>
+        <v>244804.916742345</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.883021444858825e-06</v>
+        <v>4.11641150395477e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.3125</v>
       </c>
       <c r="AH7" t="n">
-        <v>167220.3269546397</v>
+        <v>221441.0790743852</v>
       </c>
     </row>
     <row r="8">
@@ -17956,28 +17956,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>134.9981290728445</v>
+        <v>178.8071850758593</v>
       </c>
       <c r="AB8" t="n">
-        <v>184.7103958945071</v>
+        <v>244.6518790369482</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.0818949530561</v>
+        <v>221.3026470728016</v>
       </c>
       <c r="AD8" t="n">
-        <v>134998.1290728445</v>
+        <v>178807.1850758592</v>
       </c>
       <c r="AE8" t="n">
-        <v>184710.3958945071</v>
+        <v>244651.8790369482</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.896125153886127e-06</v>
+        <v>4.135121131897584e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>167081.8949530561</v>
+        <v>221302.6470728017</v>
       </c>
     </row>
     <row r="9">
@@ -18062,28 +18062,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>133.0980470753049</v>
+        <v>176.9071030783196</v>
       </c>
       <c r="AB9" t="n">
-        <v>182.1106198797731</v>
+        <v>242.0521030222142</v>
       </c>
       <c r="AC9" t="n">
-        <v>164.7302379123589</v>
+        <v>218.9509900321045</v>
       </c>
       <c r="AD9" t="n">
-        <v>133098.0470753049</v>
+        <v>176907.1030783196</v>
       </c>
       <c r="AE9" t="n">
-        <v>182110.6198797731</v>
+        <v>242052.1030222142</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.957739980828094e-06</v>
+        <v>4.223095497433569e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>164730.2379123589</v>
+        <v>218950.9900321045</v>
       </c>
     </row>
     <row r="10">
@@ -18168,28 +18168,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>122.6835861697391</v>
+        <v>166.5778935187744</v>
       </c>
       <c r="AB10" t="n">
-        <v>167.8610950151965</v>
+        <v>227.9192228102868</v>
       </c>
       <c r="AC10" t="n">
-        <v>151.8406677015192</v>
+        <v>206.1669320719771</v>
       </c>
       <c r="AD10" t="n">
-        <v>122683.5861697391</v>
+        <v>166577.8935187744</v>
       </c>
       <c r="AE10" t="n">
-        <v>167861.0950151965</v>
+        <v>227919.2228102869</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.012369206790347e-06</v>
+        <v>4.301095740756136e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>151840.6677015192</v>
+        <v>206166.9320719771</v>
       </c>
     </row>
     <row r="11">
@@ -18274,28 +18274,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>121.8740184706261</v>
+        <v>165.7683258196614</v>
       </c>
       <c r="AB11" t="n">
-        <v>166.7534087736645</v>
+        <v>226.8115365687549</v>
       </c>
       <c r="AC11" t="n">
-        <v>150.8386974802313</v>
+        <v>205.1649618506891</v>
       </c>
       <c r="AD11" t="n">
-        <v>121874.0184706261</v>
+        <v>165768.3258196614</v>
       </c>
       <c r="AE11" t="n">
-        <v>166753.4087736645</v>
+        <v>226811.5365687548</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.035631714628015e-06</v>
+        <v>4.334310219630226e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>150838.6974802313</v>
+        <v>205164.9618506891</v>
       </c>
     </row>
     <row r="12">
@@ -18380,28 +18380,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>120.8397786739437</v>
+        <v>164.734086022979</v>
       </c>
       <c r="AB12" t="n">
-        <v>165.3383162564048</v>
+        <v>225.3964440514951</v>
       </c>
       <c r="AC12" t="n">
-        <v>149.5586594067235</v>
+        <v>203.8849237771814</v>
       </c>
       <c r="AD12" t="n">
-        <v>120839.7786739437</v>
+        <v>164734.086022979</v>
       </c>
       <c r="AE12" t="n">
-        <v>165338.3162564048</v>
+        <v>225396.4440514951</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.063231687126287e-06</v>
+        <v>4.373717780924411e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>149558.6594067235</v>
+        <v>203884.9237771814</v>
       </c>
     </row>
     <row r="13">
@@ -18486,28 +18486,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>119.6363702583045</v>
+        <v>163.5306776073398</v>
       </c>
       <c r="AB13" t="n">
-        <v>163.6917597714957</v>
+        <v>223.7498875665861</v>
       </c>
       <c r="AC13" t="n">
-        <v>148.0692479617771</v>
+        <v>202.395512332235</v>
       </c>
       <c r="AD13" t="n">
-        <v>119636.3702583045</v>
+        <v>163530.6776073398</v>
       </c>
       <c r="AE13" t="n">
-        <v>163691.7597714957</v>
+        <v>223749.8875665861</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.094484261444017e-06</v>
+        <v>4.418340569519729e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH13" t="n">
-        <v>148069.2479617771</v>
+        <v>202395.512332235</v>
       </c>
     </row>
     <row r="14">
@@ -18592,28 +18592,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>118.565772566336</v>
+        <v>162.2894877147791</v>
       </c>
       <c r="AB14" t="n">
-        <v>162.2269207779084</v>
+        <v>222.0516367981519</v>
       </c>
       <c r="AC14" t="n">
-        <v>146.7442111458229</v>
+        <v>200.8593402336297</v>
       </c>
       <c r="AD14" t="n">
-        <v>118565.772566336</v>
+        <v>162289.4877147792</v>
       </c>
       <c r="AE14" t="n">
-        <v>162226.9207779084</v>
+        <v>222051.6367981519</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.135347744299192e-06</v>
+        <v>4.476685924951152e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>146744.2111458229</v>
+        <v>200859.3402336297</v>
       </c>
     </row>
     <row r="15">
@@ -18698,28 +18698,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>118.5085227645758</v>
+        <v>162.2322379130189</v>
       </c>
       <c r="AB15" t="n">
-        <v>162.1485890734571</v>
+        <v>221.9733050937006</v>
       </c>
       <c r="AC15" t="n">
-        <v>146.6733553093051</v>
+        <v>200.7884843971119</v>
       </c>
       <c r="AD15" t="n">
-        <v>118508.5227645758</v>
+        <v>162232.2379130189</v>
       </c>
       <c r="AE15" t="n">
-        <v>162148.5890734571</v>
+        <v>221973.3050937006</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.132836580548315e-06</v>
+        <v>4.473100456181623e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.4921875</v>
       </c>
       <c r="AH15" t="n">
-        <v>146673.3553093051</v>
+        <v>200788.4843971119</v>
       </c>
     </row>
   </sheetData>
@@ -18995,28 +18995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.2730210323458</v>
+        <v>128.3422654778558</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.0932387592173</v>
+        <v>175.6035496878701</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.3910068496069</v>
+        <v>158.8441933668387</v>
       </c>
       <c r="AD2" t="n">
-        <v>97273.0210323458</v>
+        <v>128342.2654778558</v>
       </c>
       <c r="AE2" t="n">
-        <v>133093.2387592173</v>
+        <v>175603.5496878701</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.830888832261856e-06</v>
+        <v>5.926857881284989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.153645833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>120391.0068496069</v>
+        <v>158844.1933668387</v>
       </c>
     </row>
   </sheetData>
@@ -19292,28 +19292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4620689276994</v>
+        <v>143.3988042858296</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.5613671311588</v>
+        <v>196.2045703325416</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.0509489348258</v>
+        <v>177.4790815149033</v>
       </c>
       <c r="AD2" t="n">
-        <v>103462.0689276994</v>
+        <v>143398.8042858296</v>
       </c>
       <c r="AE2" t="n">
-        <v>141561.3671311588</v>
+        <v>196204.5703325415</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.600474537374825e-06</v>
+        <v>5.441375451854317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>128050.9489348257</v>
+        <v>177479.0815149033</v>
       </c>
     </row>
     <row r="3">
@@ -19398,28 +19398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.8893949620556</v>
+        <v>133.9753465175846</v>
       </c>
       <c r="AB3" t="n">
-        <v>139.4095652298874</v>
+        <v>183.3109796804194</v>
       </c>
       <c r="AC3" t="n">
-        <v>126.1045119869381</v>
+        <v>165.8160370583475</v>
       </c>
       <c r="AD3" t="n">
-        <v>101889.3949620557</v>
+        <v>133975.3465175846</v>
       </c>
       <c r="AE3" t="n">
-        <v>139409.5652298874</v>
+        <v>183310.9796804194</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.697161846240691e-06</v>
+        <v>5.58749839856794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>126104.5119869381</v>
+        <v>165816.0370583475</v>
       </c>
     </row>
     <row r="4">
@@ -19504,28 +19504,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.8597567388991</v>
+        <v>133.9457082944281</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.3690129054185</v>
+        <v>183.2704273559506</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.067829919401</v>
+        <v>165.7793549908104</v>
       </c>
       <c r="AD4" t="n">
-        <v>101859.7567388991</v>
+        <v>133945.7082944281</v>
       </c>
       <c r="AE4" t="n">
-        <v>139369.0129054185</v>
+        <v>183270.4273559506</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.698476443082108e-06</v>
+        <v>5.589485140845304e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>126067.829919401</v>
+        <v>165779.3549908104</v>
       </c>
     </row>
   </sheetData>
@@ -19801,28 +19801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.4892958452097</v>
+        <v>299.3030735535304</v>
       </c>
       <c r="AB2" t="n">
-        <v>311.26089069469</v>
+        <v>409.5196695556323</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.5545881442847</v>
+        <v>370.4356870577082</v>
       </c>
       <c r="AD2" t="n">
-        <v>227489.2958452097</v>
+        <v>299303.0735535304</v>
       </c>
       <c r="AE2" t="n">
-        <v>311260.89069469</v>
+        <v>409519.6695556323</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.868452595924593e-06</v>
+        <v>2.631732543590956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.40364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>281554.5881442847</v>
+        <v>370435.6870577082</v>
       </c>
     </row>
     <row r="3">
@@ -19907,28 +19907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.2767723251689</v>
+        <v>257.2630959954643</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.8180507814661</v>
+        <v>351.9987175876064</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.4487490929382</v>
+        <v>318.4044540144533</v>
       </c>
       <c r="AD3" t="n">
-        <v>194276.7723251689</v>
+        <v>257263.0959954643</v>
       </c>
       <c r="AE3" t="n">
-        <v>265818.0507814661</v>
+        <v>351998.7175876064</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.108033496462875e-06</v>
+        <v>2.969184429790626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>240448.7490929381</v>
+        <v>318404.4540144533</v>
       </c>
     </row>
     <row r="4">
@@ -20013,28 +20013,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.6439761362677</v>
+        <v>240.5449589519915</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.0603252486432</v>
+        <v>329.1242249325857</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.8629889442922</v>
+        <v>297.7130708338686</v>
       </c>
       <c r="AD4" t="n">
-        <v>177643.9761362677</v>
+        <v>240544.9589519915</v>
       </c>
       <c r="AE4" t="n">
-        <v>243060.3252486432</v>
+        <v>329124.2249325857</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.266030493220735e-06</v>
+        <v>3.191724642512231e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.6953125</v>
       </c>
       <c r="AH4" t="n">
-        <v>219862.9889442922</v>
+        <v>297713.0708338686</v>
       </c>
     </row>
     <row r="5">
@@ -20119,28 +20119,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>173.2644868417353</v>
+        <v>227.1675129273965</v>
       </c>
       <c r="AB5" t="n">
-        <v>237.0681147864354</v>
+        <v>310.8206131104777</v>
       </c>
       <c r="AC5" t="n">
-        <v>214.4426666384754</v>
+        <v>281.1563300347761</v>
       </c>
       <c r="AD5" t="n">
-        <v>173264.4868417353</v>
+        <v>227167.5129273965</v>
       </c>
       <c r="AE5" t="n">
-        <v>237068.1147864354</v>
+        <v>310820.6131104777</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.371192410363485e-06</v>
+        <v>3.339846163119521e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>214442.6666384754</v>
+        <v>281156.3300347761</v>
       </c>
     </row>
     <row r="6">
@@ -20225,28 +20225,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>160.3943674313622</v>
+        <v>214.3826448630439</v>
       </c>
       <c r="AB6" t="n">
-        <v>219.4586496195759</v>
+        <v>293.3277925962674</v>
       </c>
       <c r="AC6" t="n">
-        <v>198.5138241120957</v>
+        <v>265.3329997591087</v>
       </c>
       <c r="AD6" t="n">
-        <v>160394.3674313622</v>
+        <v>214382.6448630439</v>
       </c>
       <c r="AE6" t="n">
-        <v>219458.6496195759</v>
+        <v>293327.7925962674</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.470299617420687e-06</v>
+        <v>3.479439569281255e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.65364583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>198513.8241120957</v>
+        <v>265332.9997591087</v>
       </c>
     </row>
     <row r="7">
@@ -20331,28 +20331,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>157.5685163405765</v>
+        <v>211.3862015716661</v>
       </c>
       <c r="AB7" t="n">
-        <v>215.5921954894134</v>
+        <v>289.2279266912582</v>
       </c>
       <c r="AC7" t="n">
-        <v>195.0163789375123</v>
+        <v>261.6244193018742</v>
       </c>
       <c r="AD7" t="n">
-        <v>157568.5163405765</v>
+        <v>211386.2015716661</v>
       </c>
       <c r="AE7" t="n">
-        <v>215592.1954894134</v>
+        <v>289227.9266912582</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.553054687750504e-06</v>
+        <v>3.596000841538935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>195016.3789375123</v>
+        <v>261624.4193018742</v>
       </c>
     </row>
     <row r="8">
@@ -20437,28 +20437,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>146.0881180468827</v>
+        <v>199.9910546239929</v>
       </c>
       <c r="AB8" t="n">
-        <v>199.8842080645622</v>
+        <v>273.6365839190562</v>
       </c>
       <c r="AC8" t="n">
-        <v>180.8075397861851</v>
+        <v>247.5210924012593</v>
       </c>
       <c r="AD8" t="n">
-        <v>146088.1180468827</v>
+        <v>199991.0546239929</v>
       </c>
       <c r="AE8" t="n">
-        <v>199884.2080645622</v>
+        <v>273636.5839190562</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.622153514164746e-06</v>
+        <v>3.693327169536202e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>180807.5397861851</v>
+        <v>247521.0924012593</v>
       </c>
     </row>
     <row r="9">
@@ -20543,28 +20543,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>143.5441030576252</v>
+        <v>197.4470396347353</v>
       </c>
       <c r="AB9" t="n">
-        <v>196.4033745222415</v>
+        <v>270.1557503767355</v>
       </c>
       <c r="AC9" t="n">
-        <v>177.6589121117618</v>
+        <v>244.372464726836</v>
       </c>
       <c r="AD9" t="n">
-        <v>143544.1030576252</v>
+        <v>197447.0396347353</v>
       </c>
       <c r="AE9" t="n">
-        <v>196403.3745222415</v>
+        <v>270155.7503767355</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.688269180500342e-06</v>
+        <v>3.786451689321243e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>177658.9121117618</v>
+        <v>244372.464726836</v>
       </c>
     </row>
     <row r="10">
@@ -20649,28 +20649,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>144.3311219758932</v>
+        <v>198.2340585530033</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.4802085270395</v>
+        <v>271.2325843815335</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.6329745904882</v>
+        <v>245.3465272055624</v>
       </c>
       <c r="AD10" t="n">
-        <v>144331.1219758932</v>
+        <v>198234.0585530033</v>
       </c>
       <c r="AE10" t="n">
-        <v>197480.2085270394</v>
+        <v>271232.5843815334</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.676137662847186e-06</v>
+        <v>3.769364335924857e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>178632.9745904882</v>
+        <v>245346.5272055624</v>
       </c>
     </row>
     <row r="11">
@@ -20755,28 +20755,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.5224548716905</v>
+        <v>187.5980269193302</v>
       </c>
       <c r="AB11" t="n">
-        <v>195.0055104023094</v>
+        <v>256.67989667175</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.3944581815209</v>
+        <v>232.1827275859706</v>
       </c>
       <c r="AD11" t="n">
-        <v>142522.4548716905</v>
+        <v>187598.0269193302</v>
       </c>
       <c r="AE11" t="n">
-        <v>195005.5104023094</v>
+        <v>256679.89667175</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.730431176278523e-06</v>
+        <v>3.845837245387372e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>176394.458181521</v>
+        <v>232182.7275859706</v>
       </c>
     </row>
     <row r="12">
@@ -20861,28 +20861,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>141.5151258481096</v>
+        <v>186.4201056951572</v>
       </c>
       <c r="AB12" t="n">
-        <v>193.6272383920267</v>
+        <v>255.0682128866205</v>
       </c>
       <c r="AC12" t="n">
-        <v>175.1477265174823</v>
+        <v>230.7248606392809</v>
       </c>
       <c r="AD12" t="n">
-        <v>141515.1258481097</v>
+        <v>186420.1056951572</v>
       </c>
       <c r="AE12" t="n">
-        <v>193627.2383920267</v>
+        <v>255068.2128866205</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.756152645401062e-06</v>
+        <v>3.882066169528344e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>175147.7265174823</v>
+        <v>230724.8606392809</v>
       </c>
     </row>
     <row r="13">
@@ -20967,28 +20967,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>140.4847064770681</v>
+        <v>185.3896863241157</v>
       </c>
       <c r="AB13" t="n">
-        <v>192.2173731496741</v>
+        <v>253.6583476442679</v>
       </c>
       <c r="AC13" t="n">
-        <v>173.8724168351011</v>
+        <v>229.4495509568997</v>
       </c>
       <c r="AD13" t="n">
-        <v>140484.7064770681</v>
+        <v>185389.6863241157</v>
       </c>
       <c r="AE13" t="n">
-        <v>192217.3731496741</v>
+        <v>253658.3476442679</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.782470746539329e-06</v>
+        <v>3.919135455311761e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>173872.4168351011</v>
+        <v>229449.5509568996</v>
       </c>
     </row>
     <row r="14">
@@ -21073,28 +21073,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>139.5565965639607</v>
+        <v>184.4615764110083</v>
       </c>
       <c r="AB14" t="n">
-        <v>190.9474922212415</v>
+        <v>252.3884667158353</v>
       </c>
       <c r="AC14" t="n">
-        <v>172.7237315601887</v>
+        <v>228.3008656819873</v>
       </c>
       <c r="AD14" t="n">
-        <v>139556.5965639607</v>
+        <v>184461.5764110083</v>
       </c>
       <c r="AE14" t="n">
-        <v>190947.4922212415</v>
+        <v>252388.4667158353</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.809297089765069e-06</v>
+        <v>3.95692060471652e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>172723.7315601887</v>
+        <v>228300.8656819873</v>
       </c>
     </row>
     <row r="15">
@@ -21179,28 +21179,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>138.6388940111645</v>
+        <v>183.5438738582121</v>
       </c>
       <c r="AB15" t="n">
-        <v>189.6918511023272</v>
+        <v>251.1328255969209</v>
       </c>
       <c r="AC15" t="n">
-        <v>171.5879270673597</v>
+        <v>227.1650611891583</v>
       </c>
       <c r="AD15" t="n">
-        <v>138638.8940111645</v>
+        <v>183543.8738582121</v>
       </c>
       <c r="AE15" t="n">
-        <v>189691.8511023272</v>
+        <v>251132.8255969209</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.834731291620775e-06</v>
+        <v>3.992744910288908e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH15" t="n">
-        <v>171587.9270673597</v>
+        <v>227165.0611891582</v>
       </c>
     </row>
     <row r="16">
@@ -21285,28 +21285,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>137.5254961593074</v>
+        <v>182.430476006355</v>
       </c>
       <c r="AB16" t="n">
-        <v>188.1684510417705</v>
+        <v>249.6094255363643</v>
       </c>
       <c r="AC16" t="n">
-        <v>170.2099181704766</v>
+        <v>225.7870522922752</v>
       </c>
       <c r="AD16" t="n">
-        <v>137525.4961593074</v>
+        <v>182430.476006355</v>
       </c>
       <c r="AE16" t="n">
-        <v>188168.4510417705</v>
+        <v>249609.4255363643</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.865866643849002e-06</v>
+        <v>4.036599338222438e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH16" t="n">
-        <v>170209.9181704767</v>
+        <v>225787.0522922752</v>
       </c>
     </row>
     <row r="17">
@@ -21391,28 +21391,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>126.9325865971034</v>
+        <v>171.9228177901716</v>
       </c>
       <c r="AB17" t="n">
-        <v>173.6747648525827</v>
+        <v>235.2323839998257</v>
       </c>
       <c r="AC17" t="n">
-        <v>157.0994890491639</v>
+        <v>212.7821354216748</v>
       </c>
       <c r="AD17" t="n">
-        <v>126932.5865971034</v>
+        <v>171922.8177901716</v>
       </c>
       <c r="AE17" t="n">
-        <v>173674.7648525827</v>
+        <v>235232.3839998257</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.906503913364765e-06</v>
+        <v>4.093837303424541e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>157099.4890491639</v>
+        <v>212782.1354216748</v>
       </c>
     </row>
     <row r="18">
@@ -21497,28 +21497,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>127.0928707140731</v>
+        <v>180.9104664366116</v>
       </c>
       <c r="AB18" t="n">
-        <v>173.8940726526565</v>
+        <v>247.5296813849529</v>
       </c>
       <c r="AC18" t="n">
-        <v>157.2978664205993</v>
+        <v>223.9057960037347</v>
       </c>
       <c r="AD18" t="n">
-        <v>127092.8707140731</v>
+        <v>180910.4664366116</v>
       </c>
       <c r="AE18" t="n">
-        <v>173894.0726526566</v>
+        <v>247529.6813849529</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.885422915475674e-06</v>
+        <v>4.064144525391476e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>157297.8664205993</v>
+        <v>223905.7960037347</v>
       </c>
     </row>
     <row r="19">
@@ -21603,28 +21603,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>126.4145392894092</v>
+        <v>171.4047704824774</v>
       </c>
       <c r="AB19" t="n">
-        <v>172.9659496715616</v>
+        <v>234.5235688188046</v>
       </c>
       <c r="AC19" t="n">
-        <v>156.458322194191</v>
+        <v>212.1409685667018</v>
       </c>
       <c r="AD19" t="n">
-        <v>126414.5392894092</v>
+        <v>171404.7704824774</v>
       </c>
       <c r="AE19" t="n">
-        <v>172965.9496715616</v>
+        <v>234523.5688188046</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>4.10628710553484e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>156458.322194191</v>
+        <v>212140.9685667018</v>
       </c>
     </row>
     <row r="20">
@@ -21709,28 +21709,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>125.7834369247302</v>
+        <v>170.7736681177984</v>
       </c>
       <c r="AB20" t="n">
-        <v>172.1024475739369</v>
+        <v>233.6600667211799</v>
       </c>
       <c r="AC20" t="n">
-        <v>155.6772315248305</v>
+        <v>211.3598778973413</v>
       </c>
       <c r="AD20" t="n">
-        <v>125783.4369247302</v>
+        <v>170773.6681177984</v>
       </c>
       <c r="AE20" t="n">
-        <v>172102.4475739369</v>
+        <v>233660.0667211799</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.915342906190379e-06</v>
+        <v>4.10628710553484e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>155677.2315248305</v>
+        <v>211359.8778973413</v>
       </c>
     </row>
     <row r="21">
@@ -21815,28 +21815,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>125.0983836263435</v>
+        <v>170.0886148194116</v>
       </c>
       <c r="AB21" t="n">
-        <v>171.1651274286661</v>
+        <v>232.7227465759091</v>
       </c>
       <c r="AC21" t="n">
-        <v>154.8293678986869</v>
+        <v>210.5120142711978</v>
       </c>
       <c r="AD21" t="n">
-        <v>125098.3836263435</v>
+        <v>170088.6148194117</v>
       </c>
       <c r="AE21" t="n">
-        <v>171165.1274286661</v>
+        <v>232722.7465759091</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.946213088633838e-06</v>
+        <v>4.149768039405062e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH21" t="n">
-        <v>154829.3678986869</v>
+        <v>210512.0142711978</v>
       </c>
     </row>
   </sheetData>
@@ -22112,28 +22112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.95396163349781</v>
+        <v>131.5774276186109</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.5519552631494</v>
+        <v>180.0300412541295</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.2831370766708</v>
+        <v>162.8482267906357</v>
       </c>
       <c r="AD2" t="n">
-        <v>93953.96163349781</v>
+        <v>131577.4276186109</v>
       </c>
       <c r="AE2" t="n">
-        <v>128551.9552631494</v>
+        <v>180030.0412541296</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.870627942945985e-06</v>
+        <v>6.117480978910347e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>116283.1370766708</v>
+        <v>162848.2267906357</v>
       </c>
     </row>
   </sheetData>
@@ -22409,28 +22409,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6773971578017</v>
+        <v>194.3519008718508</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.5857533906236</v>
+        <v>265.9208449734738</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.8238849969159</v>
+        <v>240.5417327515331</v>
       </c>
       <c r="AD2" t="n">
-        <v>143677.3971578017</v>
+        <v>194351.9008718508</v>
       </c>
       <c r="AE2" t="n">
-        <v>196585.7533906236</v>
+        <v>265920.8449734738</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.737493567074801e-06</v>
+        <v>3.990954337413523e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.38020833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>177823.8849969159</v>
+        <v>240541.7327515332</v>
       </c>
     </row>
     <row r="3">
@@ -22515,28 +22515,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.8384798690096</v>
+        <v>180.5982349290793</v>
       </c>
       <c r="AB3" t="n">
-        <v>177.650736226166</v>
+        <v>247.1024724616655</v>
       </c>
       <c r="AC3" t="n">
-        <v>160.6959992951647</v>
+        <v>223.5193593004942</v>
       </c>
       <c r="AD3" t="n">
-        <v>129838.4798690096</v>
+        <v>180598.2349290793</v>
       </c>
       <c r="AE3" t="n">
-        <v>177650.736226166</v>
+        <v>247102.4724616655</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.944268877072295e-06</v>
+        <v>4.292409226743671e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.5859375</v>
       </c>
       <c r="AH3" t="n">
-        <v>160695.9992951647</v>
+        <v>223519.3593004942</v>
       </c>
     </row>
     <row r="4">
@@ -22621,28 +22621,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.5398080139604</v>
+        <v>168.8254699301408</v>
       </c>
       <c r="AB4" t="n">
-        <v>173.1373478669584</v>
+        <v>230.9944560123901</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.613362386378</v>
+        <v>208.9486693333894</v>
       </c>
       <c r="AD4" t="n">
-        <v>126539.8080139604</v>
+        <v>168825.4699301408</v>
       </c>
       <c r="AE4" t="n">
-        <v>173137.3478669584</v>
+        <v>230994.4560123901</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.090669912434483e-06</v>
+        <v>4.50584528888021e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>156613.3623863781</v>
+        <v>208948.6693333894</v>
       </c>
     </row>
     <row r="5">
@@ -22727,28 +22727,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>115.6132000353397</v>
+        <v>157.9841132975408</v>
       </c>
       <c r="AB5" t="n">
-        <v>158.1870807826944</v>
+        <v>216.1608335807753</v>
       </c>
       <c r="AC5" t="n">
-        <v>143.0899278097998</v>
+        <v>195.5307470075234</v>
       </c>
       <c r="AD5" t="n">
-        <v>115613.2000353397</v>
+        <v>157984.1132975408</v>
       </c>
       <c r="AE5" t="n">
-        <v>158187.0807826945</v>
+        <v>216160.8335807753</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.190264732502713e-06</v>
+        <v>4.65104321150399e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>143089.9278097998</v>
+        <v>195530.7470075234</v>
       </c>
     </row>
     <row r="6">
@@ -22833,28 +22833,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.1145377806161</v>
+        <v>157.4854510428171</v>
       </c>
       <c r="AB6" t="n">
-        <v>157.5047890863558</v>
+        <v>215.4785418844367</v>
       </c>
       <c r="AC6" t="n">
-        <v>142.4727530753571</v>
+        <v>194.9135722730807</v>
       </c>
       <c r="AD6" t="n">
-        <v>115114.5377806161</v>
+        <v>157485.4510428171</v>
       </c>
       <c r="AE6" t="n">
-        <v>157504.7890863558</v>
+        <v>215478.5418844367</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.21381141749722e-06</v>
+        <v>4.685371600706729e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>142472.7530753571</v>
+        <v>194913.5722730807</v>
       </c>
     </row>
     <row r="7">
@@ -22939,28 +22939,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>112.608776728465</v>
+        <v>154.8090977900738</v>
       </c>
       <c r="AB7" t="n">
-        <v>154.0762962684287</v>
+        <v>211.8166372916628</v>
       </c>
       <c r="AC7" t="n">
-        <v>139.371470800052</v>
+        <v>191.6011547151246</v>
       </c>
       <c r="AD7" t="n">
-        <v>112608.776728465</v>
+        <v>154809.0977900738</v>
       </c>
       <c r="AE7" t="n">
-        <v>154076.2962684287</v>
+        <v>211816.6372916628</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.31958006350913e-06</v>
+        <v>4.839570259523909e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.388020833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>139371.470800052</v>
+        <v>191601.1547151246</v>
       </c>
     </row>
     <row r="8">
@@ -23045,28 +23045,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>111.2658875127693</v>
+        <v>153.4662085743781</v>
       </c>
       <c r="AB8" t="n">
-        <v>152.2388959994238</v>
+        <v>209.9792370226579</v>
       </c>
       <c r="AC8" t="n">
-        <v>137.7094294339129</v>
+        <v>189.9391133489854</v>
       </c>
       <c r="AD8" t="n">
-        <v>111265.8875127693</v>
+        <v>153466.2085743781</v>
       </c>
       <c r="AE8" t="n">
-        <v>152238.8959994238</v>
+        <v>209979.2370226579</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.372081513588346e-06</v>
+        <v>4.91611140374221e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>137709.4294339129</v>
+        <v>189939.1133489854</v>
       </c>
     </row>
     <row r="9">
@@ -23151,28 +23151,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>111.4148980303434</v>
+        <v>153.6152190919522</v>
       </c>
       <c r="AB9" t="n">
-        <v>152.4427787634487</v>
+        <v>210.1831197866827</v>
       </c>
       <c r="AC9" t="n">
-        <v>137.8938539130905</v>
+        <v>190.1235378281631</v>
       </c>
       <c r="AD9" t="n">
-        <v>111414.8980303434</v>
+        <v>153615.2190919522</v>
       </c>
       <c r="AE9" t="n">
-        <v>152442.7787634487</v>
+        <v>210183.1197866827</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.360236382417329e-06</v>
+        <v>4.898842549417661e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.270833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>137893.8539130905</v>
+        <v>190123.5378281631</v>
       </c>
     </row>
   </sheetData>
@@ -23448,28 +23448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>92.23775494179988</v>
+        <v>129.4145648470184</v>
       </c>
       <c r="AB2" t="n">
-        <v>126.2037655538739</v>
+        <v>177.070716991267</v>
       </c>
       <c r="AC2" t="n">
-        <v>114.1590552975428</v>
+        <v>160.1713362819821</v>
       </c>
       <c r="AD2" t="n">
-        <v>92237.75494179988</v>
+        <v>129414.5648470184</v>
       </c>
       <c r="AE2" t="n">
-        <v>126203.7655538738</v>
+        <v>177070.716991267</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.841710382858078e-06</v>
+        <v>6.155322442187014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>114159.0552975428</v>
+        <v>160171.3362819821</v>
       </c>
     </row>
   </sheetData>
@@ -23745,28 +23745,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1920745638305</v>
+        <v>249.9658176392714</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.4926988664873</v>
+        <v>342.014259407468</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.9179570800174</v>
+        <v>309.3728985097491</v>
       </c>
       <c r="AD2" t="n">
-        <v>188192.0745638305</v>
+        <v>249965.8176392714</v>
       </c>
       <c r="AE2" t="n">
-        <v>257492.6988664872</v>
+        <v>342014.259407468</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.15993104172022e-06</v>
+        <v>3.074909329578425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>232917.9570800174</v>
+        <v>309372.8985097491</v>
       </c>
     </row>
     <row r="3">
@@ -23851,28 +23851,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.1270641255479</v>
+        <v>222.9907354156196</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.7753546128285</v>
+        <v>305.1057618524484</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.5596014709094</v>
+        <v>275.9868961599672</v>
       </c>
       <c r="AD3" t="n">
-        <v>170127.0641255479</v>
+        <v>222990.7354156196</v>
       </c>
       <c r="AE3" t="n">
-        <v>232775.3546128285</v>
+        <v>305105.7618524485</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.369007088646816e-06</v>
+        <v>3.372553038969238e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.4609375</v>
       </c>
       <c r="AH3" t="n">
-        <v>210559.6014709094</v>
+        <v>275986.8961599672</v>
       </c>
     </row>
     <row r="4">
@@ -23957,28 +23957,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.3078915905095</v>
+        <v>208.2568142266017</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.4991089746479</v>
+        <v>284.9461608669171</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.2184922585409</v>
+        <v>257.751299198311</v>
       </c>
       <c r="AD4" t="n">
-        <v>155307.8915905095</v>
+        <v>208256.8142266017</v>
       </c>
       <c r="AE4" t="n">
-        <v>212499.1089746479</v>
+        <v>284946.1608669171</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.530291733825283e-06</v>
+        <v>3.602160211882517e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>192218.4922585409</v>
+        <v>257751.2991983109</v>
       </c>
     </row>
     <row r="5">
@@ -24063,28 +24063,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.659780223505</v>
+        <v>195.7839719287995</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.5076020590001</v>
+        <v>267.8802677721062</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.703367757297</v>
+        <v>242.3141509883319</v>
       </c>
       <c r="AD5" t="n">
-        <v>151659.780223505</v>
+        <v>195783.9719287995</v>
       </c>
       <c r="AE5" t="n">
-        <v>207507.6020590001</v>
+        <v>267880.2677721062</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.646392193195388e-06</v>
+        <v>3.767442518951522e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.15885416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>187703.367757297</v>
+        <v>242314.1509883319</v>
       </c>
     </row>
     <row r="6">
@@ -24169,28 +24169,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>140.2856512718749</v>
+        <v>193.1492330533954</v>
       </c>
       <c r="AB6" t="n">
-        <v>191.9450170362329</v>
+        <v>264.2753018063045</v>
       </c>
       <c r="AC6" t="n">
-        <v>173.6260540068725</v>
+        <v>239.0532379147037</v>
       </c>
       <c r="AD6" t="n">
-        <v>140285.6512718749</v>
+        <v>193149.2330533954</v>
       </c>
       <c r="AE6" t="n">
-        <v>191945.0170362329</v>
+        <v>264275.3018063045</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729301660080073e-06</v>
+        <v>3.885473645089258e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.8203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>173626.0540068725</v>
+        <v>239053.2379147037</v>
       </c>
     </row>
     <row r="7">
@@ -24275,28 +24275,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.0785844965533</v>
+        <v>182.2880275478685</v>
       </c>
       <c r="AB7" t="n">
-        <v>188.9252109053254</v>
+        <v>249.4145212710807</v>
       </c>
       <c r="AC7" t="n">
-        <v>170.8944539347732</v>
+        <v>225.6107494165204</v>
       </c>
       <c r="AD7" t="n">
-        <v>138078.5844965533</v>
+        <v>182288.0275478685</v>
       </c>
       <c r="AE7" t="n">
-        <v>188925.2109053254</v>
+        <v>249414.5212710807</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.802122334849996e-06</v>
+        <v>3.98914221964611e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.53385416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>170894.4539347732</v>
+        <v>225610.7494165204</v>
       </c>
     </row>
     <row r="8">
@@ -24381,28 +24381,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.7492131708448</v>
+        <v>179.7880640215677</v>
       </c>
       <c r="AB8" t="n">
-        <v>185.7380622928823</v>
+        <v>245.9939608837908</v>
       </c>
       <c r="AC8" t="n">
-        <v>168.0114823127096</v>
+        <v>222.5166425118057</v>
       </c>
       <c r="AD8" t="n">
-        <v>135749.2131708448</v>
+        <v>179788.0640215677</v>
       </c>
       <c r="AE8" t="n">
-        <v>185738.0622928824</v>
+        <v>245993.9608837908</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.87961332686855e-06</v>
+        <v>4.099459525946024e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>168011.4823127096</v>
+        <v>222516.6425118057</v>
       </c>
     </row>
     <row r="9">
@@ -24487,28 +24487,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.8978919436707</v>
+        <v>179.9367427943936</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.9414911491073</v>
+        <v>246.1973897400157</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.1954962044107</v>
+        <v>222.7006564035068</v>
       </c>
       <c r="AD9" t="n">
-        <v>135897.8919436708</v>
+        <v>179936.7427943936</v>
       </c>
       <c r="AE9" t="n">
-        <v>185941.4911491073</v>
+        <v>246197.3897400157</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.87820769740537e-06</v>
+        <v>4.097458451343744e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>168195.4962044107</v>
+        <v>222700.6564035068</v>
       </c>
     </row>
     <row r="10">
@@ -24593,28 +24593,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>134.1439972987766</v>
+        <v>178.1828481494995</v>
       </c>
       <c r="AB10" t="n">
-        <v>183.5417351195935</v>
+        <v>243.7976337105019</v>
       </c>
       <c r="AC10" t="n">
-        <v>166.0247695222742</v>
+        <v>220.5299297213703</v>
       </c>
       <c r="AD10" t="n">
-        <v>134143.9972987766</v>
+        <v>178182.8481494995</v>
       </c>
       <c r="AE10" t="n">
-        <v>183541.7351195935</v>
+        <v>243797.6337105019</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.936813377442808e-06</v>
+        <v>4.180890352100114e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.05208333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>166024.7695222742</v>
+        <v>220529.9297213703</v>
       </c>
     </row>
     <row r="11">
@@ -24699,28 +24699,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>124.303527421691</v>
+        <v>177.08176834864</v>
       </c>
       <c r="AB11" t="n">
-        <v>170.0775701028803</v>
+        <v>242.2910877507543</v>
       </c>
       <c r="AC11" t="n">
-        <v>153.8456055176774</v>
+        <v>219.1671663935699</v>
       </c>
       <c r="AD11" t="n">
-        <v>124303.527421691</v>
+        <v>177081.76834864</v>
       </c>
       <c r="AE11" t="n">
-        <v>170077.5701028803</v>
+        <v>242291.0877507543</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.960459692444374e-06</v>
+        <v>4.214553590973962e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>153845.6055176774</v>
+        <v>219167.1663935699</v>
       </c>
     </row>
     <row r="12">
@@ -24805,28 +24805,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>122.7572901038817</v>
+        <v>166.8813923006252</v>
       </c>
       <c r="AB12" t="n">
-        <v>167.9619399894786</v>
+        <v>228.3344832330363</v>
       </c>
       <c r="AC12" t="n">
-        <v>151.9318881729926</v>
+        <v>206.542560622801</v>
       </c>
       <c r="AD12" t="n">
-        <v>122757.2901038817</v>
+        <v>166881.3923006252</v>
       </c>
       <c r="AE12" t="n">
-        <v>167961.9399894786</v>
+        <v>228334.4832330362</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.015823356139316e-06</v>
+        <v>4.293370109986363e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.791666666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>151931.8881729926</v>
+        <v>206542.560622801</v>
       </c>
     </row>
     <row r="13">
@@ -24911,28 +24911,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>121.7873108243268</v>
+        <v>165.9114130210703</v>
       </c>
       <c r="AB13" t="n">
-        <v>166.6347715467265</v>
+        <v>227.0073147902842</v>
       </c>
       <c r="AC13" t="n">
-        <v>150.7313828237238</v>
+        <v>205.3420552735322</v>
       </c>
       <c r="AD13" t="n">
-        <v>121787.3108243268</v>
+        <v>165911.4130210703</v>
       </c>
       <c r="AE13" t="n">
-        <v>166634.7715467265</v>
+        <v>227007.3147902842</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.042802373255196e-06</v>
+        <v>4.331777832191424e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>150731.3828237238</v>
+        <v>205342.0552735322</v>
       </c>
     </row>
     <row r="14">
@@ -25017,28 +25017,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>120.4439224691183</v>
+        <v>164.5680246658618</v>
       </c>
       <c r="AB14" t="n">
-        <v>164.7966883330197</v>
+        <v>225.1692315765773</v>
       </c>
       <c r="AC14" t="n">
-        <v>149.0687236921666</v>
+        <v>203.679396141975</v>
       </c>
       <c r="AD14" t="n">
-        <v>120443.9224691183</v>
+        <v>164568.0246658618</v>
       </c>
       <c r="AE14" t="n">
-        <v>164796.6883330197</v>
+        <v>225169.2315765774</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.082341369767882e-06</v>
+        <v>4.388066124229765e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>149068.7236921666</v>
+        <v>203679.396141975</v>
       </c>
     </row>
     <row r="15">
@@ -25123,28 +25123,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>120.4423295524538</v>
+        <v>164.5664317491973</v>
       </c>
       <c r="AB15" t="n">
-        <v>164.7945088341649</v>
+        <v>225.1670520777225</v>
       </c>
       <c r="AC15" t="n">
-        <v>149.0667522016235</v>
+        <v>203.6774246514319</v>
       </c>
       <c r="AD15" t="n">
-        <v>120442.3295524538</v>
+        <v>164566.4317491973</v>
       </c>
       <c r="AE15" t="n">
-        <v>164794.5088341649</v>
+        <v>225167.0520777225</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.065428473323809e-06</v>
+        <v>4.363988678208777e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>149066.7522016235</v>
+        <v>203677.4246514319</v>
       </c>
     </row>
     <row r="16">
@@ -25229,28 +25229,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>120.1516221906402</v>
+        <v>164.2757243873837</v>
       </c>
       <c r="AB16" t="n">
-        <v>164.3967501966281</v>
+        <v>224.7692934401857</v>
       </c>
       <c r="AC16" t="n">
-        <v>148.7069550901954</v>
+        <v>203.3176275400037</v>
       </c>
       <c r="AD16" t="n">
-        <v>120151.6221906402</v>
+        <v>164275.7243873837</v>
       </c>
       <c r="AE16" t="n">
-        <v>164396.7501966281</v>
+        <v>224769.2934401857</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.063818800874038e-06</v>
+        <v>4.361697125035198e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.635416666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>148706.9550901953</v>
+        <v>203317.6275400037</v>
       </c>
     </row>
   </sheetData>
@@ -25526,28 +25526,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.6099114287972</v>
+        <v>304.9219736390422</v>
       </c>
       <c r="AB2" t="n">
-        <v>318.2671428417668</v>
+        <v>417.2076965410064</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.8921734197835</v>
+        <v>377.3899795378117</v>
       </c>
       <c r="AD2" t="n">
-        <v>232609.9114287972</v>
+        <v>304921.9736390422</v>
       </c>
       <c r="AE2" t="n">
-        <v>318267.1428417668</v>
+        <v>417207.6965410064</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.81157867911763e-06</v>
+        <v>2.545437275356393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.79427083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>287892.1734197835</v>
+        <v>377389.9795378117</v>
       </c>
     </row>
     <row r="3">
@@ -25632,28 +25632,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>208.0738805422006</v>
+        <v>271.2616836301444</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.6958629294551</v>
+        <v>371.1522027636424</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.5248893447048</v>
+        <v>335.7299574472679</v>
       </c>
       <c r="AD3" t="n">
-        <v>208073.8805422006</v>
+        <v>271261.6836301445</v>
       </c>
       <c r="AE3" t="n">
-        <v>284695.8629294551</v>
+        <v>371152.2027636424</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.040178680494791e-06</v>
+        <v>2.866641632285217e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.0234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>257524.8893447048</v>
+        <v>335729.9574472678</v>
       </c>
     </row>
     <row r="4">
@@ -25738,28 +25738,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.0170421256984</v>
+        <v>245.2511782919303</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.3579441134059</v>
+        <v>335.5634818572307</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.4143087454772</v>
+        <v>303.5377741151813</v>
       </c>
       <c r="AD4" t="n">
-        <v>191017.0421256984</v>
+        <v>245251.1782919303</v>
       </c>
       <c r="AE4" t="n">
-        <v>261357.9441134059</v>
+        <v>335563.4818572307</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.191963633845053e-06</v>
+        <v>3.079913670949402e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH4" t="n">
-        <v>236414.3087454772</v>
+        <v>303537.7741151813</v>
       </c>
     </row>
     <row r="5">
@@ -25844,28 +25844,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.5216389124265</v>
+        <v>230.6704342240868</v>
       </c>
       <c r="AB5" t="n">
-        <v>241.5246939449606</v>
+        <v>315.6134645665878</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.4739161369605</v>
+        <v>285.4917584747258</v>
       </c>
       <c r="AD5" t="n">
-        <v>176521.6389124265</v>
+        <v>230670.4342240868</v>
       </c>
       <c r="AE5" t="n">
-        <v>241524.6939449606</v>
+        <v>315613.4645665878</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.313018174787642e-06</v>
+        <v>3.250006609455671e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.36979166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>218473.9161369605</v>
+        <v>285491.7584747258</v>
       </c>
     </row>
     <row r="6">
@@ -25950,28 +25950,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.4852856247009</v>
+        <v>217.7193322823818</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.6877802533865</v>
+        <v>297.893195527663</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.339332453839</v>
+        <v>269.4626870423165</v>
       </c>
       <c r="AD6" t="n">
-        <v>163485.2856247009</v>
+        <v>217719.3322823818</v>
       </c>
       <c r="AE6" t="n">
-        <v>223687.7802533865</v>
+        <v>297893.195527663</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.408548241664674e-06</v>
+        <v>3.384235277494824e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.875</v>
       </c>
       <c r="AH6" t="n">
-        <v>202339.332453839</v>
+        <v>269462.6870423165</v>
       </c>
     </row>
     <row r="7">
@@ -26056,28 +26056,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>160.5740322401922</v>
+        <v>214.6374866972808</v>
       </c>
       <c r="AB7" t="n">
-        <v>219.7044749372689</v>
+        <v>293.6764784366985</v>
       </c>
       <c r="AC7" t="n">
-        <v>198.7361882064862</v>
+        <v>265.6484075123127</v>
       </c>
       <c r="AD7" t="n">
-        <v>160574.0322401922</v>
+        <v>214637.4866972808</v>
       </c>
       <c r="AE7" t="n">
-        <v>219704.4749372689</v>
+        <v>293676.4784366984</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.48889981320668e-06</v>
+        <v>3.497136741667557e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.49739583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>198736.1882064862</v>
+        <v>265648.4075123127</v>
       </c>
     </row>
     <row r="8">
@@ -26162,28 +26162,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>158.1661002963601</v>
+        <v>203.3612286863118</v>
       </c>
       <c r="AB8" t="n">
-        <v>216.4098362212594</v>
+        <v>278.2478047527048</v>
       </c>
       <c r="AC8" t="n">
-        <v>195.7559851854772</v>
+        <v>251.6922247904351</v>
       </c>
       <c r="AD8" t="n">
-        <v>158166.1002963601</v>
+        <v>203361.2286863118</v>
       </c>
       <c r="AE8" t="n">
-        <v>216409.8362212594</v>
+        <v>278247.8047527049</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.555918032117194e-06</v>
+        <v>3.591303599838965e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.18489583333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>195755.9851854772</v>
+        <v>251692.2247904351</v>
       </c>
     </row>
     <row r="9">
@@ -26268,28 +26268,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.5785908914197</v>
+        <v>200.7272966945289</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.555294648592</v>
+        <v>274.6439428006708</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.4145788085112</v>
+        <v>248.43231036505</v>
       </c>
       <c r="AD9" t="n">
-        <v>146578.5908914196</v>
+        <v>200727.2966945289</v>
       </c>
       <c r="AE9" t="n">
-        <v>200555.294648592</v>
+        <v>274643.9428006708</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.616632013457299e-06</v>
+        <v>3.67661241530464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.92447916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>181414.5788085112</v>
+        <v>248432.31036505</v>
       </c>
     </row>
     <row r="10">
@@ -26374,28 +26374,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>146.3070552963752</v>
+        <v>200.4557610994844</v>
       </c>
       <c r="AB10" t="n">
-        <v>200.1837676681474</v>
+        <v>274.2724158202262</v>
       </c>
       <c r="AC10" t="n">
-        <v>181.0785098416388</v>
+        <v>248.0962413981775</v>
       </c>
       <c r="AD10" t="n">
-        <v>146307.0552963752</v>
+        <v>200455.7610994845</v>
       </c>
       <c r="AE10" t="n">
-        <v>200183.7676681474</v>
+        <v>274272.4158202262</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.637851154547944e-06</v>
+        <v>3.706427290753207e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.84635416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>181078.5098416388</v>
+        <v>248096.2413981775</v>
       </c>
     </row>
     <row r="11">
@@ -26480,28 +26480,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>145.2821497943008</v>
+        <v>199.4308555974101</v>
       </c>
       <c r="AB11" t="n">
-        <v>198.7814467445703</v>
+        <v>272.8700948966491</v>
       </c>
       <c r="AC11" t="n">
-        <v>179.8100244588377</v>
+        <v>246.8277560153764</v>
       </c>
       <c r="AD11" t="n">
-        <v>145282.1497943008</v>
+        <v>199430.8555974101</v>
       </c>
       <c r="AE11" t="n">
-        <v>198781.4467445703</v>
+        <v>272870.0948966491</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.662892376953052e-06</v>
+        <v>3.741612547493753e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH11" t="n">
-        <v>179810.0244588377</v>
+        <v>246827.7560153764</v>
       </c>
     </row>
     <row r="12">
@@ -26586,28 +26586,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>143.445848956371</v>
+        <v>188.7262286923433</v>
       </c>
       <c r="AB12" t="n">
-        <v>196.2689389262405</v>
+        <v>258.2235521103352</v>
       </c>
       <c r="AC12" t="n">
-        <v>177.5373068603616</v>
+        <v>233.5790587160317</v>
       </c>
       <c r="AD12" t="n">
-        <v>143445.848956371</v>
+        <v>188726.2286923433</v>
       </c>
       <c r="AE12" t="n">
-        <v>196268.9389262405</v>
+        <v>258223.5521103352</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.718554181843003e-06</v>
+        <v>3.81982258309072e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>177537.3068603616</v>
+        <v>233579.0587160317</v>
       </c>
     </row>
     <row r="13">
@@ -26692,28 +26692,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>142.5098852203858</v>
+        <v>187.619672755766</v>
       </c>
       <c r="AB13" t="n">
-        <v>194.9883120508605</v>
+        <v>256.7095134601082</v>
       </c>
       <c r="AC13" t="n">
-        <v>176.3789012165963</v>
+        <v>232.2095177896153</v>
       </c>
       <c r="AD13" t="n">
-        <v>142509.8852203858</v>
+        <v>187619.672755766</v>
       </c>
       <c r="AE13" t="n">
-        <v>194988.3120508605</v>
+        <v>256709.5134601082</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.743265914479623e-06</v>
+        <v>3.854544875926785e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH13" t="n">
-        <v>176378.9012165963</v>
+        <v>232209.5177896153</v>
       </c>
     </row>
     <row r="14">
@@ -26798,28 +26798,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>141.6846524830831</v>
+        <v>186.7944400184633</v>
       </c>
       <c r="AB14" t="n">
-        <v>193.8591922129846</v>
+        <v>255.5803936222324</v>
       </c>
       <c r="AC14" t="n">
-        <v>175.3575429913173</v>
+        <v>231.1881595643364</v>
       </c>
       <c r="AD14" t="n">
-        <v>141684.6524830831</v>
+        <v>186794.4400184633</v>
       </c>
       <c r="AE14" t="n">
-        <v>193859.1922129846</v>
+        <v>255580.3936222324</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.767560293409491e-06</v>
+        <v>3.888680747817174e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>175357.5429913173</v>
+        <v>231188.1595643364</v>
       </c>
     </row>
     <row r="15">
@@ -26904,28 +26904,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>140.6272095968729</v>
+        <v>185.736997132253</v>
       </c>
       <c r="AB15" t="n">
-        <v>192.4123522049848</v>
+        <v>254.1335536142326</v>
       </c>
       <c r="AC15" t="n">
-        <v>174.0487873630278</v>
+        <v>229.8794039360469</v>
       </c>
       <c r="AD15" t="n">
-        <v>140627.2095968729</v>
+        <v>185736.997132253</v>
       </c>
       <c r="AE15" t="n">
-        <v>192412.3522049848</v>
+        <v>254133.5536142326</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.796423597129064e-06</v>
+        <v>3.929236385849698e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.234375</v>
       </c>
       <c r="AH15" t="n">
-        <v>174048.7873630278</v>
+        <v>229879.4039360469</v>
       </c>
     </row>
     <row r="16">
@@ -27010,28 +27010,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>139.6374801262283</v>
+        <v>184.7472676616085</v>
       </c>
       <c r="AB16" t="n">
-        <v>191.058160679467</v>
+        <v>252.7793620887148</v>
       </c>
       <c r="AC16" t="n">
-        <v>172.8238379760853</v>
+        <v>228.6544545491043</v>
       </c>
       <c r="AD16" t="n">
-        <v>139637.4801262283</v>
+        <v>184747.2676616085</v>
       </c>
       <c r="AE16" t="n">
-        <v>191058.160679467</v>
+        <v>252779.3620887148</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.822277560963109e-06</v>
+        <v>3.965563620221296e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>172823.8379760853</v>
+        <v>228654.4545491043</v>
       </c>
     </row>
     <row r="17">
@@ -27116,28 +27116,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>139.0245372996846</v>
+        <v>184.1343248350648</v>
       </c>
       <c r="AB17" t="n">
-        <v>190.2195052630612</v>
+        <v>251.940706672309</v>
       </c>
       <c r="AC17" t="n">
-        <v>172.0652226555607</v>
+        <v>227.8958392285798</v>
       </c>
       <c r="AD17" t="n">
-        <v>139024.5372996846</v>
+        <v>184134.3248350648</v>
       </c>
       <c r="AE17" t="n">
-        <v>190219.5052630612</v>
+        <v>251940.706672309</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.827527431274356e-06</v>
+        <v>3.972940178432692e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH17" t="n">
-        <v>172065.2226555607</v>
+        <v>227895.8392285798</v>
       </c>
     </row>
     <row r="18">
@@ -27222,28 +27222,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>137.9428848260403</v>
+        <v>183.0526723614205</v>
       </c>
       <c r="AB18" t="n">
-        <v>188.7395406294826</v>
+        <v>250.4607420387304</v>
       </c>
       <c r="AC18" t="n">
-        <v>170.7265037694669</v>
+        <v>226.557120342486</v>
       </c>
       <c r="AD18" t="n">
-        <v>137942.8848260403</v>
+        <v>183052.6723614205</v>
       </c>
       <c r="AE18" t="n">
-        <v>188739.5406294826</v>
+        <v>250460.7420387304</v>
       </c>
       <c r="AF18" t="n">
-        <v>2.857884421944409e-06</v>
+        <v>4.015594586165529e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.01302083333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>170726.5037694669</v>
+        <v>226557.120342486</v>
       </c>
     </row>
     <row r="19">
@@ -27328,28 +27328,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>128.0583253622675</v>
+        <v>182.1216903108051</v>
       </c>
       <c r="AB19" t="n">
-        <v>175.2150502951685</v>
+        <v>249.1869313250497</v>
       </c>
       <c r="AC19" t="n">
-        <v>158.4927718109141</v>
+        <v>225.4048803355141</v>
       </c>
       <c r="AD19" t="n">
-        <v>128058.3253622675</v>
+        <v>182121.6903108051</v>
       </c>
       <c r="AE19" t="n">
-        <v>175215.0502951685</v>
+        <v>249186.9313250497</v>
       </c>
       <c r="AF19" t="n">
-        <v>2.876072257164961e-06</v>
+        <v>4.041150193692872e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH19" t="n">
-        <v>158492.7718109141</v>
+        <v>225404.8803355141</v>
       </c>
     </row>
     <row r="20">
@@ -27434,28 +27434,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>128.0909528205648</v>
+        <v>182.1543177691024</v>
       </c>
       <c r="AB20" t="n">
-        <v>175.2596926230328</v>
+        <v>249.231573652914</v>
       </c>
       <c r="AC20" t="n">
-        <v>158.5331535376629</v>
+        <v>225.4452620622629</v>
       </c>
       <c r="AD20" t="n">
-        <v>128090.9528205648</v>
+        <v>182154.3177691025</v>
       </c>
       <c r="AE20" t="n">
-        <v>175259.6926230328</v>
+        <v>249231.573652914</v>
       </c>
       <c r="AF20" t="n">
-        <v>2.875237549751457e-06</v>
+        <v>4.03997735180152e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>158533.1535376629</v>
+        <v>225445.2620622629</v>
       </c>
     </row>
     <row r="21">
@@ -27540,28 +27540,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>127.4662751431264</v>
+        <v>181.529640091664</v>
       </c>
       <c r="AB21" t="n">
-        <v>174.4049810659279</v>
+        <v>248.3768620958091</v>
       </c>
       <c r="AC21" t="n">
-        <v>157.7600144519726</v>
+        <v>224.6721229765726</v>
       </c>
       <c r="AD21" t="n">
-        <v>127466.2751431264</v>
+        <v>181529.640091664</v>
       </c>
       <c r="AE21" t="n">
-        <v>174404.9810659279</v>
+        <v>248376.862095809</v>
       </c>
       <c r="AF21" t="n">
-        <v>2.874293012415124e-06</v>
+        <v>4.038650188608675e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH21" t="n">
-        <v>157760.0144519726</v>
+        <v>224672.1229765726</v>
       </c>
     </row>
     <row r="22">
@@ -27646,28 +27646,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>126.7122261296457</v>
+        <v>171.9072650110465</v>
       </c>
       <c r="AB22" t="n">
-        <v>173.3732579393895</v>
+        <v>235.2111040012865</v>
       </c>
       <c r="AC22" t="n">
-        <v>156.8267575325982</v>
+        <v>212.7628863563295</v>
       </c>
       <c r="AD22" t="n">
-        <v>126712.2261296457</v>
+        <v>171907.2650110465</v>
       </c>
       <c r="AE22" t="n">
-        <v>173373.2579393895</v>
+        <v>235211.1040012865</v>
       </c>
       <c r="AF22" t="n">
-        <v>2.903310078026658e-06</v>
+        <v>4.079421876463291e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH22" t="n">
-        <v>156826.7575325982</v>
+        <v>212762.8863563295</v>
       </c>
     </row>
     <row r="23">
@@ -27752,28 +27752,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>126.7853312279978</v>
+        <v>171.9803701093985</v>
       </c>
       <c r="AB23" t="n">
-        <v>173.473283560124</v>
+        <v>235.311129622021</v>
       </c>
       <c r="AC23" t="n">
-        <v>156.9172368484767</v>
+        <v>212.853365672208</v>
       </c>
       <c r="AD23" t="n">
-        <v>126785.3312279978</v>
+        <v>171980.3701093985</v>
       </c>
       <c r="AE23" t="n">
-        <v>173473.283560124</v>
+        <v>235311.129622021</v>
       </c>
       <c r="AF23" t="n">
-        <v>2.902343574705759e-06</v>
+        <v>4.078063849010146e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH23" t="n">
-        <v>156917.2368484767</v>
+        <v>212853.365672208</v>
       </c>
     </row>
   </sheetData>
@@ -28049,28 +28049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.5052909833544</v>
+        <v>162.5861037471977</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.2488995584709</v>
+        <v>222.4574799394826</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.3823379164525</v>
+        <v>201.2264502751563</v>
       </c>
       <c r="AD2" t="n">
-        <v>121505.2909833544</v>
+        <v>162586.1037471977</v>
       </c>
       <c r="AE2" t="n">
-        <v>166248.8995584709</v>
+        <v>222457.4799394826</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.184303142276062e-06</v>
+        <v>4.728190858406613e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>150382.3379164525</v>
+        <v>201226.4502751563</v>
       </c>
     </row>
     <row r="3">
@@ -28155,28 +28155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.7794323836289</v>
+        <v>150.9454964934929</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.205062513963</v>
+        <v>206.5302875476239</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.8697021618005</v>
+        <v>186.8193267712167</v>
       </c>
       <c r="AD3" t="n">
-        <v>109779.4323836289</v>
+        <v>150945.4964934929</v>
       </c>
       <c r="AE3" t="n">
-        <v>150205.062513963</v>
+        <v>206530.2875476239</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.367109185398406e-06</v>
+        <v>4.999629167930983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>135869.7021618006</v>
+        <v>186819.3267712167</v>
       </c>
     </row>
     <row r="4">
@@ -28261,28 +28261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.5879471981675</v>
+        <v>139.5208879946098</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.8383316848276</v>
+        <v>190.8986341813047</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.9197259942512</v>
+        <v>172.6795364630107</v>
       </c>
       <c r="AD4" t="n">
-        <v>106587.9471981675</v>
+        <v>139520.8879946097</v>
       </c>
       <c r="AE4" t="n">
-        <v>145838.3316848276</v>
+        <v>190898.6341813047</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.534963346115126e-06</v>
+        <v>5.248866276581082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>131919.7259942512</v>
+        <v>172679.5364630107</v>
       </c>
     </row>
     <row r="5">
@@ -28367,28 +28367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.1785480807464</v>
+        <v>139.1114888771885</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.2781737509578</v>
+        <v>190.338476247435</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.4130287474032</v>
+        <v>172.1728392161627</v>
       </c>
       <c r="AD5" t="n">
-        <v>106178.5480807464</v>
+        <v>139111.4888771886</v>
       </c>
       <c r="AE5" t="n">
-        <v>145278.1737509579</v>
+        <v>190338.476247435</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542103429726465e-06</v>
+        <v>5.259468181158314e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>131413.0287474032</v>
+        <v>172172.8392161627</v>
       </c>
     </row>
     <row r="6">
@@ -28473,28 +28473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.8111675651881</v>
+        <v>138.7441083616303</v>
       </c>
       <c r="AB6" t="n">
-        <v>144.7755075218868</v>
+        <v>189.8358100183639</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.9583362777381</v>
+        <v>171.7181467464975</v>
       </c>
       <c r="AD6" t="n">
-        <v>105811.1675651881</v>
+        <v>138744.1083616303</v>
       </c>
       <c r="AE6" t="n">
-        <v>144775.5075218868</v>
+        <v>189835.8100183639</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.571061817613565e-06</v>
+        <v>5.30246684641231e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.075520833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>130958.3362777381</v>
+        <v>171718.1467464975</v>
       </c>
     </row>
   </sheetData>
@@ -28770,28 +28770,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.2433106319523</v>
+        <v>269.7226130498483</v>
       </c>
       <c r="AB2" t="n">
-        <v>283.5594405360955</v>
+        <v>369.0463784966793</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.4969255095883</v>
+        <v>333.8251100928007</v>
       </c>
       <c r="AD2" t="n">
-        <v>207243.3106319523</v>
+        <v>269722.6130498483</v>
       </c>
       <c r="AE2" t="n">
-        <v>283559.4405360955</v>
+        <v>369046.3784966792</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.007994374216292e-06</v>
+        <v>2.842820797889989e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50520833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>256496.9255095883</v>
+        <v>333825.1100928008</v>
       </c>
     </row>
     <row r="3">
@@ -28876,28 +28876,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.4507920362523</v>
+        <v>239.9314200276499</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.1101992922926</v>
+        <v>328.2847539088752</v>
       </c>
       <c r="AC3" t="n">
-        <v>230.762839921324</v>
+        <v>296.9537177464557</v>
       </c>
       <c r="AD3" t="n">
-        <v>186450.7920362523</v>
+        <v>239931.42002765</v>
       </c>
       <c r="AE3" t="n">
-        <v>255110.1992922926</v>
+        <v>328284.7539088752</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.233392000025296e-06</v>
+        <v>3.161927796730536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>230762.839921324</v>
+        <v>296953.7177464556</v>
       </c>
     </row>
     <row r="4">
@@ -28982,28 +28982,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.4218423992176</v>
+        <v>224.8171295360436</v>
       </c>
       <c r="AB4" t="n">
-        <v>234.5469273684483</v>
+        <v>307.6047148628332</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.1620978091514</v>
+        <v>278.2473526023443</v>
       </c>
       <c r="AD4" t="n">
-        <v>171421.8423992176</v>
+        <v>224817.1295360436</v>
       </c>
       <c r="AE4" t="n">
-        <v>234546.9273684483</v>
+        <v>307604.7148628333</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.379875845188245e-06</v>
+        <v>3.369312502052063e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.23958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>212162.0978091515</v>
+        <v>278247.3526023443</v>
       </c>
     </row>
     <row r="5">
@@ -29088,28 +29088,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.4631029192761</v>
+        <v>210.9436414021228</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.4479641958783</v>
+        <v>288.6223963429124</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.8859128762022</v>
+        <v>261.0766799201073</v>
       </c>
       <c r="AD5" t="n">
-        <v>157463.1029192761</v>
+        <v>210943.6414021227</v>
       </c>
       <c r="AE5" t="n">
-        <v>215447.9641958782</v>
+        <v>288622.3963429124</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513718270996213e-06</v>
+        <v>3.558800100529744e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.58854166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>194885.9128762022</v>
+        <v>261076.6799201073</v>
       </c>
     </row>
     <row r="6">
@@ -29194,28 +29194,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>154.6400859879287</v>
+        <v>207.9500322701831</v>
       </c>
       <c r="AB6" t="n">
-        <v>211.5853878876935</v>
+        <v>284.5264082598807</v>
       </c>
       <c r="AC6" t="n">
-        <v>191.3919754297095</v>
+        <v>257.3716071909635</v>
       </c>
       <c r="AD6" t="n">
-        <v>154640.0859879287</v>
+        <v>207950.0322701831</v>
       </c>
       <c r="AE6" t="n">
-        <v>211585.3878876934</v>
+        <v>284526.4082598807</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.595853935513273e-06</v>
+        <v>3.675083780571798e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.22395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>191391.9754297095</v>
+        <v>257371.6071909635</v>
       </c>
     </row>
     <row r="7">
@@ -29300,28 +29300,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.5038494928868</v>
+        <v>196.8990471211617</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.3482978191044</v>
+        <v>269.4059628439409</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.6090918518715</v>
+        <v>243.6942358638378</v>
       </c>
       <c r="AD7" t="n">
-        <v>143503.8494928867</v>
+        <v>196899.0471211617</v>
       </c>
       <c r="AE7" t="n">
-        <v>196348.2978191044</v>
+        <v>269405.9628439409</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.661208954868851e-06</v>
+        <v>3.767610239139719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.95052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>177609.0918518715</v>
+        <v>243694.2358638378</v>
       </c>
     </row>
     <row r="8">
@@ -29406,28 +29406,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>140.7513826317956</v>
+        <v>194.1465802600706</v>
       </c>
       <c r="AB8" t="n">
-        <v>192.5822512294937</v>
+        <v>265.6399162543302</v>
       </c>
       <c r="AC8" t="n">
-        <v>174.2024714630924</v>
+        <v>240.2876154750587</v>
       </c>
       <c r="AD8" t="n">
-        <v>140751.3826317956</v>
+        <v>194146.5802600706</v>
       </c>
       <c r="AE8" t="n">
-        <v>192582.2512294937</v>
+        <v>265639.9162543302</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.743814477450432e-06</v>
+        <v>3.884559121383048e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>174202.4714630924</v>
+        <v>240287.6154750587</v>
       </c>
     </row>
     <row r="9">
@@ -29512,28 +29512,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.630674225964</v>
+        <v>185.2831304829078</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.4170926633559</v>
+        <v>253.5125532414153</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.0530753987053</v>
+        <v>229.3176709672316</v>
       </c>
       <c r="AD9" t="n">
-        <v>140630.674225964</v>
+        <v>185283.1304829078</v>
       </c>
       <c r="AE9" t="n">
-        <v>192417.0926633559</v>
+        <v>253512.5532414153</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.759789651644161e-06</v>
+        <v>3.907175996226422e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.55989583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>174053.0753987053</v>
+        <v>229317.6709672316</v>
       </c>
     </row>
     <row r="10">
@@ -29618,28 +29618,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.666888731557</v>
+        <v>183.1487527879086</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.7301547138081</v>
+        <v>250.5922035170206</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.6225750359203</v>
+        <v>226.6760353217957</v>
       </c>
       <c r="AD10" t="n">
-        <v>138666.888731557</v>
+        <v>183148.7527879086</v>
       </c>
       <c r="AE10" t="n">
-        <v>189730.1547138081</v>
+        <v>250592.2035170206</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.819484000031934e-06</v>
+        <v>3.991688352083736e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>171622.5750359203</v>
+        <v>226676.0353217957</v>
       </c>
     </row>
     <row r="11">
@@ -29724,28 +29724,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.8121649005353</v>
+        <v>182.2940289568869</v>
       </c>
       <c r="AB11" t="n">
-        <v>188.5606838604506</v>
+        <v>249.4227326636632</v>
       </c>
       <c r="AC11" t="n">
-        <v>170.5647168394443</v>
+        <v>225.6181771253196</v>
       </c>
       <c r="AD11" t="n">
-        <v>137812.1649005353</v>
+        <v>182294.0289568869</v>
       </c>
       <c r="AE11" t="n">
-        <v>188560.6838604506</v>
+        <v>249422.7326636632</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.843178270999944e-06</v>
+        <v>4.025233548805211e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>170564.7168394443</v>
+        <v>225618.1771253196</v>
       </c>
     </row>
     <row r="12">
@@ -29830,28 +29830,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>136.7611648506565</v>
+        <v>181.2430289070081</v>
       </c>
       <c r="AB12" t="n">
-        <v>187.1226592253574</v>
+        <v>247.9847080285699</v>
       </c>
       <c r="AC12" t="n">
-        <v>169.2639352572436</v>
+        <v>224.3173955431189</v>
       </c>
       <c r="AD12" t="n">
-        <v>136761.1648506565</v>
+        <v>181243.0289070081</v>
       </c>
       <c r="AE12" t="n">
-        <v>187122.6592253574</v>
+        <v>247984.7080285699</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.869400825838951e-06</v>
+        <v>4.062358166895456e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.15625</v>
       </c>
       <c r="AH12" t="n">
-        <v>169263.9352572436</v>
+        <v>224317.3955431189</v>
       </c>
     </row>
     <row r="13">
@@ -29936,28 +29936,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>126.3378210095034</v>
+        <v>179.6476777832068</v>
       </c>
       <c r="AB13" t="n">
-        <v>172.8609803364229</v>
+        <v>245.8018782390618</v>
       </c>
       <c r="AC13" t="n">
-        <v>156.3633709850725</v>
+        <v>222.3428919650999</v>
       </c>
       <c r="AD13" t="n">
-        <v>126337.8210095034</v>
+        <v>179647.6777832068</v>
       </c>
       <c r="AE13" t="n">
-        <v>172860.9803364229</v>
+        <v>245801.8782390618</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.921868309710514e-06</v>
+        <v>4.136639079371244e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>156363.3709850725</v>
+        <v>222342.8919650999</v>
       </c>
     </row>
     <row r="14">
@@ -30042,28 +30042,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>125.7593527083327</v>
+        <v>179.0692094820361</v>
       </c>
       <c r="AB14" t="n">
-        <v>172.0694944865411</v>
+        <v>245.0103923891801</v>
       </c>
       <c r="AC14" t="n">
-        <v>155.6474234338458</v>
+        <v>221.6269444138733</v>
       </c>
       <c r="AD14" t="n">
-        <v>125759.3527083327</v>
+        <v>179069.2094820361</v>
       </c>
       <c r="AE14" t="n">
-        <v>172069.4944865411</v>
+        <v>245010.3923891801</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.922830400033105e-06</v>
+        <v>4.138001160069093e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>155647.4234338458</v>
+        <v>221626.9444138733</v>
       </c>
     </row>
     <row r="15">
@@ -30148,28 +30148,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>124.6874655836617</v>
+        <v>169.2545809860339</v>
       </c>
       <c r="AB15" t="n">
-        <v>170.6028912342446</v>
+        <v>231.5815846901064</v>
       </c>
       <c r="AC15" t="n">
-        <v>154.3207907375574</v>
+        <v>209.479763274145</v>
       </c>
       <c r="AD15" t="n">
-        <v>124687.4655836617</v>
+        <v>169254.5809860339</v>
       </c>
       <c r="AE15" t="n">
-        <v>170602.8912342446</v>
+        <v>231581.5846901064</v>
       </c>
       <c r="AF15" t="n">
-        <v>2.955429600033474e-06</v>
+        <v>4.184153522319508e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>154320.7907375574</v>
+        <v>209479.763274145</v>
       </c>
     </row>
     <row r="16">
@@ -30254,28 +30254,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>123.7847784794401</v>
+        <v>168.3518938818123</v>
       </c>
       <c r="AB16" t="n">
-        <v>169.3677949145048</v>
+        <v>230.3464883703666</v>
       </c>
       <c r="AC16" t="n">
-        <v>153.2035702771046</v>
+        <v>208.3625428136921</v>
       </c>
       <c r="AD16" t="n">
-        <v>123784.7784794401</v>
+        <v>168351.8938818123</v>
       </c>
       <c r="AE16" t="n">
-        <v>169367.7949145048</v>
+        <v>230346.4883703666</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.980242580678917e-06</v>
+        <v>4.219282533805926e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>153203.5702771046</v>
+        <v>208362.5428136921</v>
       </c>
     </row>
     <row r="17">
@@ -30360,28 +30360,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>122.8548788947882</v>
+        <v>167.4219942971604</v>
       </c>
       <c r="AB17" t="n">
-        <v>168.0954652785103</v>
+        <v>229.074158734372</v>
       </c>
       <c r="AC17" t="n">
-        <v>152.0526699958431</v>
+        <v>207.2116425324307</v>
       </c>
       <c r="AD17" t="n">
-        <v>122854.8788947882</v>
+        <v>167421.9942971604</v>
       </c>
       <c r="AE17" t="n">
-        <v>168095.4652785103</v>
+        <v>229074.1587343721</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.004473832292094e-06</v>
+        <v>4.253587961614573e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>152052.6699958431</v>
+        <v>207211.6425324307</v>
       </c>
     </row>
     <row r="18">
@@ -30466,28 +30466,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>122.9739169347761</v>
+        <v>167.5410323371483</v>
       </c>
       <c r="AB18" t="n">
-        <v>168.2583383764094</v>
+        <v>229.2370318322712</v>
       </c>
       <c r="AC18" t="n">
-        <v>152.1999987138726</v>
+        <v>207.3589712504602</v>
       </c>
       <c r="AD18" t="n">
-        <v>122973.9169347761</v>
+        <v>167541.0323371483</v>
       </c>
       <c r="AE18" t="n">
-        <v>168258.3383764094</v>
+        <v>229237.0318322712</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.000893961324311e-06</v>
+        <v>4.248519754366757e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH18" t="n">
-        <v>152199.9987138727</v>
+        <v>207358.9712504602</v>
       </c>
     </row>
     <row r="19">
@@ -30572,28 +30572,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>122.9123250794089</v>
+        <v>167.479440481781</v>
       </c>
       <c r="AB19" t="n">
-        <v>168.1740656826551</v>
+        <v>229.1527591385168</v>
       </c>
       <c r="AC19" t="n">
-        <v>152.1237688877327</v>
+        <v>207.2827414243203</v>
       </c>
       <c r="AD19" t="n">
-        <v>122912.3250794089</v>
+        <v>167479.440481781</v>
       </c>
       <c r="AE19" t="n">
-        <v>168174.0656826551</v>
+        <v>229152.7591385168</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.002124541969487e-06</v>
+        <v>4.250261950608193e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>10</v>
+        <v>9.700520833333334</v>
       </c>
       <c r="AH19" t="n">
-        <v>152123.7688877327</v>
+        <v>207282.7414243203</v>
       </c>
     </row>
   </sheetData>
@@ -30869,28 +30869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>127.9210920353592</v>
+        <v>177.9867879106671</v>
       </c>
       <c r="AB2" t="n">
-        <v>175.0272816029856</v>
+        <v>243.5293754421643</v>
       </c>
       <c r="AC2" t="n">
-        <v>158.3229234991781</v>
+        <v>220.2872736456598</v>
       </c>
       <c r="AD2" t="n">
-        <v>127921.0920353592</v>
+        <v>177986.7879106671</v>
       </c>
       <c r="AE2" t="n">
-        <v>175027.2816029856</v>
+        <v>243529.3754421643</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.96051607942571e-06</v>
+        <v>4.353268603370653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71614583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>158322.9234991781</v>
+        <v>220287.2736456599</v>
       </c>
     </row>
     <row r="3">
@@ -30975,28 +30975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.9697615862369</v>
+        <v>165.6770408484492</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.6208969621027</v>
+        <v>226.6866364439337</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.4325166205107</v>
+        <v>205.0519820184823</v>
       </c>
       <c r="AD3" t="n">
-        <v>123969.7615862369</v>
+        <v>165677.0408484492</v>
       </c>
       <c r="AE3" t="n">
-        <v>169620.8969621027</v>
+        <v>226686.6364439337</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.139190816667198e-06</v>
+        <v>4.615999526960082e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>153432.5166205108</v>
+        <v>205051.9820184823</v>
       </c>
     </row>
     <row r="4">
@@ -31081,28 +31081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.894130135535</v>
+        <v>154.6866607437679</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.4667293888856</v>
+        <v>211.6491135233659</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.724641531469</v>
+        <v>191.4496191801528</v>
       </c>
       <c r="AD4" t="n">
-        <v>112894.130135535</v>
+        <v>154686.6607437679</v>
       </c>
       <c r="AE4" t="n">
-        <v>154466.7293888856</v>
+        <v>211649.1135233658</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.267529492189222e-06</v>
+        <v>4.804714167164494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.713541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>139724.641531469</v>
+        <v>191449.6191801528</v>
       </c>
     </row>
     <row r="5">
@@ -31187,28 +31187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.4225148655231</v>
+        <v>152.0444532731638</v>
       </c>
       <c r="AB5" t="n">
-        <v>151.084956336487</v>
+        <v>208.0339286961204</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.6656201528419</v>
+        <v>188.1794625188747</v>
       </c>
       <c r="AD5" t="n">
-        <v>110422.5148655231</v>
+        <v>152044.4532731638</v>
       </c>
       <c r="AE5" t="n">
-        <v>151084.956336487</v>
+        <v>208033.9286961204</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.38762914162835e-06</v>
+        <v>4.981313793429858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>136665.6201528418</v>
+        <v>188179.4625188747</v>
       </c>
     </row>
     <row r="6">
@@ -31293,28 +31293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>108.9456731996073</v>
+        <v>142.3797871947447</v>
       </c>
       <c r="AB6" t="n">
-        <v>149.064276415526</v>
+        <v>194.8103061926585</v>
       </c>
       <c r="AC6" t="n">
-        <v>134.8377910874947</v>
+        <v>176.2178839876683</v>
       </c>
       <c r="AD6" t="n">
-        <v>108945.6731996073</v>
+        <v>142379.7871947447</v>
       </c>
       <c r="AE6" t="n">
-        <v>149064.276415526</v>
+        <v>194810.3061926586</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.451859418931395e-06</v>
+        <v>5.075760721623328e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.192708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>134837.7910874946</v>
+        <v>176217.8839876683</v>
       </c>
     </row>
     <row r="7">
@@ -31399,28 +31399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>108.5314511578797</v>
+        <v>141.9655651530171</v>
       </c>
       <c r="AB7" t="n">
-        <v>148.4975195438478</v>
+        <v>194.2435493209803</v>
       </c>
       <c r="AC7" t="n">
-        <v>134.325124696201</v>
+        <v>175.7052175963746</v>
       </c>
       <c r="AD7" t="n">
-        <v>108531.4511578797</v>
+        <v>141965.5651530171</v>
       </c>
       <c r="AE7" t="n">
-        <v>148497.5195438478</v>
+        <v>194243.5493209804</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.470555670427196e-06</v>
+        <v>5.103252484023478e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH7" t="n">
-        <v>134325.124696201</v>
+        <v>175705.2175963746</v>
       </c>
     </row>
     <row r="8">
@@ -31505,28 +31505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>108.5149113485318</v>
+        <v>141.9490253436692</v>
       </c>
       <c r="AB8" t="n">
-        <v>148.4748890470131</v>
+        <v>194.2209188241457</v>
       </c>
       <c r="AC8" t="n">
-        <v>134.3046540222221</v>
+        <v>175.6847469223958</v>
       </c>
       <c r="AD8" t="n">
-        <v>108514.9113485318</v>
+        <v>141949.0253436692</v>
       </c>
       <c r="AE8" t="n">
-        <v>148474.8890470131</v>
+        <v>194220.9188241457</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.471920716168741e-06</v>
+        <v>5.105259705267817e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>134304.6540222221</v>
+        <v>175684.7469223958</v>
       </c>
     </row>
   </sheetData>
@@ -31802,28 +31802,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7259748026438</v>
+        <v>210.629259551804</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2299282855909</v>
+        <v>288.1922452257582</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5476333755951</v>
+        <v>260.6875818218532</v>
       </c>
       <c r="AD2" t="n">
-        <v>150725.9748026438</v>
+        <v>210629.259551804</v>
       </c>
       <c r="AE2" t="n">
-        <v>206229.9282855909</v>
+        <v>288192.2452257582</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.554398897193774e-06</v>
+        <v>3.69563409551648e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.9921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>186547.6333755951</v>
+        <v>260687.5818218532</v>
       </c>
     </row>
     <row r="3">
@@ -31908,28 +31908,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.5034817813603</v>
+        <v>187.4135473315567</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.7160388168574</v>
+        <v>256.4274835610933</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.8462975684359</v>
+        <v>231.9544044283309</v>
       </c>
       <c r="AD3" t="n">
-        <v>144503.4817813603</v>
+        <v>187413.5473315566</v>
       </c>
       <c r="AE3" t="n">
-        <v>197716.0388168574</v>
+        <v>256427.4835610933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.765940055589151e-06</v>
+        <v>4.00168602751107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>178846.2975684359</v>
+        <v>231954.4044283309</v>
       </c>
     </row>
     <row r="4">
@@ -32014,28 +32014,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>132.1664805955423</v>
+        <v>175.1617974917593</v>
       </c>
       <c r="AB4" t="n">
-        <v>180.83600952435</v>
+        <v>239.6640989212352</v>
       </c>
       <c r="AC4" t="n">
-        <v>163.5772745803301</v>
+        <v>216.7908936909373</v>
       </c>
       <c r="AD4" t="n">
-        <v>132166.4805955423</v>
+        <v>175161.7974917593</v>
       </c>
       <c r="AE4" t="n">
-        <v>180836.00952435</v>
+        <v>239664.0989212352</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.906308707684225e-06</v>
+        <v>4.204767534159911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>163577.2745803302</v>
+        <v>216790.8936909373</v>
       </c>
     </row>
     <row r="5">
@@ -32120,28 +32120,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>129.5289278373039</v>
+        <v>172.3536525329286</v>
       </c>
       <c r="AB5" t="n">
-        <v>177.2271934799147</v>
+        <v>235.8218711019529</v>
       </c>
       <c r="AC5" t="n">
-        <v>160.3128788741694</v>
+        <v>213.3153627021255</v>
       </c>
       <c r="AD5" t="n">
-        <v>129528.9278373039</v>
+        <v>172353.6525329286</v>
       </c>
       <c r="AE5" t="n">
-        <v>177227.1934799147</v>
+        <v>235821.8711019529</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.013855658526764e-06</v>
+        <v>4.360363505814595e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>160312.8788741694</v>
+        <v>213315.3627021255</v>
       </c>
     </row>
     <row r="6">
@@ -32226,28 +32226,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>118.0057418403417</v>
+        <v>160.915717881987</v>
       </c>
       <c r="AB6" t="n">
-        <v>161.4606620317914</v>
+        <v>220.1719843064789</v>
       </c>
       <c r="AC6" t="n">
-        <v>146.0510830589841</v>
+        <v>199.1590791376525</v>
       </c>
       <c r="AD6" t="n">
-        <v>118005.7418403417</v>
+        <v>160915.717881987</v>
       </c>
       <c r="AE6" t="n">
-        <v>161460.6620317914</v>
+        <v>220171.9843064789</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.131284411896948e-06</v>
+        <v>4.530256197682575e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>146051.0830589841</v>
+        <v>199159.0791376525</v>
       </c>
     </row>
     <row r="7">
@@ -32332,28 +32332,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.7448243463738</v>
+        <v>160.6548003880191</v>
       </c>
       <c r="AB7" t="n">
-        <v>161.1036632056773</v>
+        <v>219.8149854803648</v>
       </c>
       <c r="AC7" t="n">
-        <v>145.7281556997832</v>
+        <v>198.8361517784517</v>
       </c>
       <c r="AD7" t="n">
-        <v>117744.8243463738</v>
+        <v>160654.8003880191</v>
       </c>
       <c r="AE7" t="n">
-        <v>161103.6632056773</v>
+        <v>219814.9854803648</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.141966169867308e-06</v>
+        <v>4.545710271436945e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.752604166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>145728.1556997832</v>
+        <v>198836.1517784517</v>
       </c>
     </row>
     <row r="8">
@@ -32438,28 +32438,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>116.1967274792477</v>
+        <v>159.106703520893</v>
       </c>
       <c r="AB8" t="n">
-        <v>158.9854887748629</v>
+        <v>217.6968110495504</v>
       </c>
       <c r="AC8" t="n">
-        <v>143.8121368637686</v>
+        <v>196.920132942437</v>
       </c>
       <c r="AD8" t="n">
-        <v>116196.7274792477</v>
+        <v>159106.703520893</v>
       </c>
       <c r="AE8" t="n">
-        <v>158985.4887748629</v>
+        <v>217696.8110495504</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.196998398705789e-06</v>
+        <v>4.62532938710098e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>143812.1368637686</v>
+        <v>196920.132942437</v>
       </c>
     </row>
     <row r="9">
@@ -32544,28 +32544,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>114.8542155824043</v>
+        <v>157.5935994234574</v>
       </c>
       <c r="AB9" t="n">
-        <v>157.1486047701578</v>
+        <v>215.6265152699985</v>
       </c>
       <c r="AC9" t="n">
-        <v>142.1505624903891</v>
+        <v>195.0474232864064</v>
       </c>
       <c r="AD9" t="n">
-        <v>114854.2155824043</v>
+        <v>157593.5994234574</v>
       </c>
       <c r="AE9" t="n">
-        <v>157148.6047701578</v>
+        <v>215626.5152699985</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.248124962735725e-06</v>
+        <v>4.699297894299763e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.427083333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>142150.5624903891</v>
+        <v>195047.4232864064</v>
       </c>
     </row>
     <row r="10">
@@ -32650,28 +32650,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>114.012620491769</v>
+        <v>156.7520043328221</v>
       </c>
       <c r="AB10" t="n">
-        <v>155.9970972385962</v>
+        <v>214.4750077384369</v>
       </c>
       <c r="AC10" t="n">
-        <v>141.1089532214884</v>
+        <v>194.0058140175058</v>
       </c>
       <c r="AD10" t="n">
-        <v>114012.620491769</v>
+        <v>156752.0043328221</v>
       </c>
       <c r="AE10" t="n">
-        <v>155997.0972385962</v>
+        <v>214475.0077384369</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.273229446776195e-06</v>
+        <v>4.735618371603536e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>141108.9532214884</v>
+        <v>194005.8140175058</v>
       </c>
     </row>
     <row r="11">
@@ -32756,28 +32756,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>113.8963576811607</v>
+        <v>156.6357415222139</v>
       </c>
       <c r="AB11" t="n">
-        <v>155.8380213319688</v>
+        <v>214.3159318318095</v>
       </c>
       <c r="AC11" t="n">
-        <v>140.965059296125</v>
+        <v>193.8619200921424</v>
       </c>
       <c r="AD11" t="n">
-        <v>113896.3576811607</v>
+        <v>156635.7415222139</v>
       </c>
       <c r="AE11" t="n">
-        <v>155838.0213319688</v>
+        <v>214315.9318318095</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.272594188042274e-06</v>
+        <v>4.734699296732681e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.361979166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>140965.059296125</v>
+        <v>193861.9200921424</v>
       </c>
     </row>
   </sheetData>
@@ -33053,28 +33053,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>106.8045435706306</v>
+        <v>147.2835897366248</v>
       </c>
       <c r="AB2" t="n">
-        <v>146.134688397189</v>
+        <v>201.5199051709551</v>
       </c>
       <c r="AC2" t="n">
-        <v>132.1877988379242</v>
+        <v>182.2871282564597</v>
       </c>
       <c r="AD2" t="n">
-        <v>106804.5435706306</v>
+        <v>147283.5897366248</v>
       </c>
       <c r="AE2" t="n">
-        <v>146134.688397189</v>
+        <v>201519.9051709551</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.447590825999525e-06</v>
+        <v>5.177194098891054e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>132187.7988379242</v>
+        <v>182287.1282564597</v>
       </c>
     </row>
     <row r="3">
@@ -33159,28 +33159,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>103.8290768301705</v>
+        <v>136.2124032715168</v>
       </c>
       <c r="AB3" t="n">
-        <v>142.0635235345653</v>
+        <v>186.3718194231266</v>
       </c>
       <c r="AC3" t="n">
-        <v>128.5051802358723</v>
+        <v>168.5847545519272</v>
       </c>
       <c r="AD3" t="n">
-        <v>103829.0768301705</v>
+        <v>136212.4032715168</v>
       </c>
       <c r="AE3" t="n">
-        <v>142063.5235345653</v>
+        <v>186371.8194231266</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.623603898182231e-06</v>
+        <v>5.441510221256824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.140625</v>
       </c>
       <c r="AH3" t="n">
-        <v>128505.1802358723</v>
+        <v>168584.7545519272</v>
       </c>
     </row>
     <row r="4">
@@ -33265,28 +33265,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>103.3627284603688</v>
+        <v>135.7460549017152</v>
       </c>
       <c r="AB4" t="n">
-        <v>141.425445121165</v>
+        <v>185.7337410097263</v>
       </c>
       <c r="AC4" t="n">
-        <v>127.927999130698</v>
+        <v>168.0075734467529</v>
       </c>
       <c r="AD4" t="n">
-        <v>103362.7284603688</v>
+        <v>135746.0549017152</v>
       </c>
       <c r="AE4" t="n">
-        <v>141425.445121165</v>
+        <v>185733.7410097262</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.644501473346656e-06</v>
+        <v>5.472891788351877e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.088541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>127927.999130698</v>
+        <v>168007.5734467529</v>
       </c>
     </row>
   </sheetData>
@@ -33562,28 +33562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.85109637478752</v>
+        <v>130.2839538516599</v>
       </c>
       <c r="AB2" t="n">
-        <v>135.2524310625156</v>
+        <v>178.2602533821529</v>
       </c>
       <c r="AC2" t="n">
-        <v>122.3441288699245</v>
+        <v>161.247344989247</v>
       </c>
       <c r="AD2" t="n">
-        <v>98851.09637478752</v>
+        <v>130283.9538516599</v>
       </c>
       <c r="AE2" t="n">
-        <v>135252.4310625156</v>
+        <v>178260.2533821529</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.780878002846214e-06</v>
+        <v>5.798909344783818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.127604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>122344.1288699245</v>
+        <v>161247.344989247</v>
       </c>
     </row>
   </sheetData>
@@ -58760,28 +58760,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>202.5826663491355</v>
+        <v>264.5849688507433</v>
       </c>
       <c r="AB2" t="n">
-        <v>277.1825414152344</v>
+        <v>362.0168270465984</v>
       </c>
       <c r="AC2" t="n">
-        <v>250.728628690786</v>
+        <v>327.4664491670782</v>
       </c>
       <c r="AD2" t="n">
-        <v>202582.6663491355</v>
+        <v>264584.9688507433</v>
       </c>
       <c r="AE2" t="n">
-        <v>277182.5414152344</v>
+        <v>362016.8270465984</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.074368107637856e-06</v>
+        <v>2.944771366283389e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.140625</v>
       </c>
       <c r="AH2" t="n">
-        <v>250728.628690786</v>
+        <v>327466.4491670782</v>
       </c>
     </row>
     <row r="3">
@@ -58866,28 +58866,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.1866078104719</v>
+        <v>236.1888208035254</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.329801376966</v>
+        <v>323.1639645386056</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.5839396315944</v>
+        <v>292.32164932661</v>
       </c>
       <c r="AD3" t="n">
-        <v>174186.6078104718</v>
+        <v>236188.8208035254</v>
       </c>
       <c r="AE3" t="n">
-        <v>238329.801376966</v>
+        <v>323163.9645386056</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.290628279359741e-06</v>
+        <v>3.251774139325114e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.79947916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>215583.9396315944</v>
+        <v>292321.64932661</v>
       </c>
     </row>
     <row r="4">
@@ -58972,28 +58972,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.2540259820401</v>
+        <v>220.170898120522</v>
       </c>
       <c r="AB4" t="n">
-        <v>216.5301400234143</v>
+        <v>301.2475360628563</v>
       </c>
       <c r="AC4" t="n">
-        <v>195.8648073616019</v>
+        <v>272.4968940246786</v>
       </c>
       <c r="AD4" t="n">
-        <v>158254.0259820401</v>
+        <v>220170.898120522</v>
       </c>
       <c r="AE4" t="n">
-        <v>216530.1400234143</v>
+        <v>301247.5360628563</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.466757697566225e-06</v>
+        <v>3.501807325616827e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.88802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>195864.8073616019</v>
+        <v>272496.8940246786</v>
       </c>
     </row>
     <row r="5">
@@ -59078,28 +59078,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.5296698620873</v>
+        <v>207.5769809594595</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.4343116731017</v>
+        <v>284.0159829986867</v>
       </c>
       <c r="AC5" t="n">
-        <v>191.2553177170014</v>
+        <v>256.9098962003113</v>
       </c>
       <c r="AD5" t="n">
-        <v>154529.6698620873</v>
+        <v>207576.9809594595</v>
       </c>
       <c r="AE5" t="n">
-        <v>211434.3116731017</v>
+        <v>284015.9829986867</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.578952654925221e-06</v>
+        <v>3.661079200582347e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.3671875</v>
       </c>
       <c r="AH5" t="n">
-        <v>191255.3177170015</v>
+        <v>256909.8962003113</v>
       </c>
     </row>
     <row r="6">
@@ -59184,28 +59184,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.9857705671432</v>
+        <v>196.3341128239979</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.9536364288447</v>
+        <v>268.6329948154196</v>
       </c>
       <c r="AC6" t="n">
-        <v>188.1068332328968</v>
+        <v>242.9950388190908</v>
       </c>
       <c r="AD6" t="n">
-        <v>151985.7705671432</v>
+        <v>196334.1128239979</v>
       </c>
       <c r="AE6" t="n">
-        <v>207953.6364288447</v>
+        <v>268632.9948154196</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.659844723739655e-06</v>
+        <v>3.775913519104254e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.02864583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>188106.8332328968</v>
+        <v>242995.0388190908</v>
       </c>
     </row>
     <row r="7">
@@ -59290,28 +59290,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>140.8545667900311</v>
+        <v>193.9871292334238</v>
       </c>
       <c r="AB7" t="n">
-        <v>192.7234323469551</v>
+        <v>265.4217483251894</v>
       </c>
       <c r="AC7" t="n">
-        <v>174.3301784528523</v>
+        <v>240.0902691868744</v>
       </c>
       <c r="AD7" t="n">
-        <v>140854.5667900311</v>
+        <v>193987.1292334239</v>
       </c>
       <c r="AE7" t="n">
-        <v>192723.4323469551</v>
+        <v>265421.7483251894</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728868718983598e-06</v>
+        <v>3.87389992953567e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.7421875</v>
       </c>
       <c r="AH7" t="n">
-        <v>174330.1784528523</v>
+        <v>240090.2691868744</v>
       </c>
     </row>
     <row r="8">
@@ -59396,28 +59396,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>137.8070833537104</v>
+        <v>182.0700847559935</v>
       </c>
       <c r="AB8" t="n">
-        <v>188.5537310639028</v>
+        <v>249.1163223282801</v>
       </c>
       <c r="AC8" t="n">
-        <v>170.5584276080407</v>
+        <v>225.3410101622958</v>
       </c>
       <c r="AD8" t="n">
-        <v>137807.0833537104</v>
+        <v>182070.0847559935</v>
       </c>
       <c r="AE8" t="n">
-        <v>188553.7310639028</v>
+        <v>249116.3223282801</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.821966662324041e-06</v>
+        <v>4.006061698124079e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH8" t="n">
-        <v>170558.4276080407</v>
+        <v>225341.0101622958</v>
       </c>
     </row>
     <row r="9">
@@ -59502,28 +59502,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>137.580592932998</v>
+        <v>181.8435943352811</v>
       </c>
       <c r="AB9" t="n">
-        <v>188.2438368782321</v>
+        <v>248.8064281426094</v>
       </c>
       <c r="AC9" t="n">
-        <v>170.278109288511</v>
+        <v>225.0606918427661</v>
       </c>
       <c r="AD9" t="n">
-        <v>137580.592932998</v>
+        <v>181843.5943352811</v>
       </c>
       <c r="AE9" t="n">
-        <v>188243.8368782321</v>
+        <v>248806.4281426094</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.838969310418389e-06</v>
+        <v>4.030198644249925e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.32552083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>170278.109288511</v>
+        <v>225060.6918427661</v>
       </c>
     </row>
     <row r="10">
@@ -59608,28 +59608,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>136.7978566387624</v>
+        <v>181.0608580410455</v>
       </c>
       <c r="AB10" t="n">
-        <v>187.1728625485713</v>
+        <v>247.7354538129486</v>
       </c>
       <c r="AC10" t="n">
-        <v>169.3093472457509</v>
+        <v>224.091929800006</v>
       </c>
       <c r="AD10" t="n">
-        <v>136797.8566387624</v>
+        <v>181060.8580410455</v>
       </c>
       <c r="AE10" t="n">
-        <v>187172.8625485713</v>
+        <v>247735.4538129486</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.860701171889973e-06</v>
+        <v>4.061049178039914e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.24739583333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>169309.3472457509</v>
+        <v>224091.929800006</v>
       </c>
     </row>
     <row r="11">
@@ -59714,28 +59714,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.2487026740966</v>
+        <v>179.5117040763797</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.0532417502671</v>
+        <v>245.6158330146444</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.3920200815297</v>
+        <v>222.1746026357848</v>
       </c>
       <c r="AD11" t="n">
-        <v>135248.7026740966</v>
+        <v>179511.7040763797</v>
       </c>
       <c r="AE11" t="n">
-        <v>185053.2417502672</v>
+        <v>245615.8330146444</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.91438900375345e-06</v>
+        <v>4.137264382760467e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.06510416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>167392.0200815297</v>
+        <v>222174.6026357848</v>
       </c>
     </row>
     <row r="12">
@@ -59820,28 +59820,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>125.3911760796725</v>
+        <v>178.4383976684937</v>
       </c>
       <c r="AB12" t="n">
-        <v>171.5657389804021</v>
+        <v>244.1472878364387</v>
       </c>
       <c r="AC12" t="n">
-        <v>155.1917456461872</v>
+        <v>220.8462133482705</v>
       </c>
       <c r="AD12" t="n">
-        <v>125391.1760796725</v>
+        <v>178438.3976684937</v>
       </c>
       <c r="AE12" t="n">
-        <v>171565.7389804021</v>
+        <v>244147.2878364387</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.940287077009742e-06</v>
+        <v>4.174029267587916e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH12" t="n">
-        <v>155191.7456461872</v>
+        <v>220846.2133482705</v>
       </c>
     </row>
     <row r="13">
@@ -59926,28 +59926,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>124.3807857621902</v>
+        <v>168.7290385104939</v>
       </c>
       <c r="AB13" t="n">
-        <v>170.1832783727486</v>
+        <v>230.8625142897752</v>
       </c>
       <c r="AC13" t="n">
-        <v>153.9412251386321</v>
+        <v>208.8293199435995</v>
       </c>
       <c r="AD13" t="n">
-        <v>124380.7857621902</v>
+        <v>168729.0385104939</v>
       </c>
       <c r="AE13" t="n">
-        <v>170183.2783727486</v>
+        <v>230862.5142897752</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.968707397400559e-06</v>
+        <v>4.214374732502906e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH13" t="n">
-        <v>153941.2251386321</v>
+        <v>208829.3199435995</v>
       </c>
     </row>
     <row r="14">
@@ -60032,28 +60032,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>123.2890300940864</v>
+        <v>167.6372828423901</v>
       </c>
       <c r="AB14" t="n">
-        <v>168.6894901027889</v>
+        <v>229.3687260198155</v>
       </c>
       <c r="AC14" t="n">
-        <v>152.5900019246119</v>
+        <v>207.4780967295793</v>
       </c>
       <c r="AD14" t="n">
-        <v>123289.0300940864</v>
+        <v>167637.2828423901</v>
       </c>
       <c r="AE14" t="n">
-        <v>168689.4901027889</v>
+        <v>229368.7260198155</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.997352918428388e-06</v>
+        <v>4.25503989206857e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>152590.0019246119</v>
+        <v>207478.0967295793</v>
       </c>
     </row>
     <row r="15">
@@ -60138,28 +60138,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>121.8356872077665</v>
+        <v>166.1839399560702</v>
       </c>
       <c r="AB15" t="n">
-        <v>166.7009622487641</v>
+        <v>227.3801981657906</v>
       </c>
       <c r="AC15" t="n">
-        <v>150.7912563780581</v>
+        <v>205.6793511830255</v>
       </c>
       <c r="AD15" t="n">
-        <v>121835.6872077665</v>
+        <v>166183.9399560702</v>
       </c>
       <c r="AE15" t="n">
-        <v>166700.9622487641</v>
+        <v>227380.1981657906</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.036875630223859e-06</v>
+        <v>4.311146303261763e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>9.661458333333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>150791.2563780581</v>
+        <v>205679.3511830255</v>
       </c>
     </row>
     <row r="16">
@@ -60244,28 +60244,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>121.1793179693832</v>
+        <v>165.5275707176868</v>
       </c>
       <c r="AB16" t="n">
-        <v>165.8028888998413</v>
+        <v>226.4821248168679</v>
       </c>
       <c r="AC16" t="n">
-        <v>149.9788938891025</v>
+        <v>204.8669886940698</v>
       </c>
       <c r="AD16" t="n">
-        <v>121179.3179693832</v>
+        <v>165527.5707176868</v>
       </c>
       <c r="AE16" t="n">
-        <v>165802.8888998413</v>
+        <v>226482.1248168679</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.04932922545058e-06</v>
+        <v>4.328825417444006e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>10</v>
+        <v>9.622395833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>149978.8938891025</v>
+        <v>204866.9886940698</v>
       </c>
     </row>
     <row r="17">
@@ -60350,28 +60350,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>121.1601467281947</v>
+        <v>165.5083994764984</v>
       </c>
       <c r="AB17" t="n">
-        <v>165.7766579618718</v>
+        <v>226.4558938788984</v>
       </c>
       <c r="AC17" t="n">
-        <v>149.9551663950374</v>
+        <v>204.8432612000048</v>
       </c>
       <c r="AD17" t="n">
-        <v>121160.1467281947</v>
+        <v>165508.3994764984</v>
       </c>
       <c r="AE17" t="n">
-        <v>165776.6579618718</v>
+        <v>226455.8938788984</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.050455228635637e-06</v>
+        <v>4.330423890697373e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH17" t="n">
-        <v>149955.1663950374</v>
+        <v>204843.2612000048</v>
       </c>
     </row>
   </sheetData>
@@ -60647,28 +60647,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>95.71700265166652</v>
+        <v>133.8877109015309</v>
       </c>
       <c r="AB2" t="n">
-        <v>130.9642257640869</v>
+        <v>183.1910727643242</v>
       </c>
       <c r="AC2" t="n">
-        <v>118.4651838666426</v>
+        <v>165.707573890034</v>
       </c>
       <c r="AD2" t="n">
-        <v>95717.00265166652</v>
+        <v>133887.7109015309</v>
       </c>
       <c r="AE2" t="n">
-        <v>130964.2257640869</v>
+        <v>183191.0727643243</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.847730784889042e-06</v>
+        <v>6.012003453492855e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>118465.1838666426</v>
+        <v>165707.573890034</v>
       </c>
     </row>
   </sheetData>
@@ -60944,28 +60944,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.72813286144215</v>
+        <v>134.1016623112446</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.7159428419035</v>
+        <v>183.4838105219644</v>
       </c>
       <c r="AC2" t="n">
-        <v>120.9542809286123</v>
+        <v>165.9723731669451</v>
       </c>
       <c r="AD2" t="n">
-        <v>97728.13286144215</v>
+        <v>134101.6623112446</v>
       </c>
       <c r="AE2" t="n">
-        <v>133715.9428419035</v>
+        <v>183483.8105219644</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.737843853775417e-06</v>
+        <v>6.09147491773597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>120954.2809286124</v>
+        <v>165972.3731669451</v>
       </c>
     </row>
   </sheetData>
@@ -61241,28 +61241,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.6279475120948</v>
+        <v>166.0286743621797</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.5214559829748</v>
+        <v>227.1677569303952</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.2471275523737</v>
+        <v>205.487185040973</v>
       </c>
       <c r="AD2" t="n">
-        <v>124627.9475120948</v>
+        <v>166028.6743621797</v>
       </c>
       <c r="AE2" t="n">
-        <v>170521.4559829748</v>
+        <v>227167.7569303952</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.071535338100818e-06</v>
+        <v>4.537827349678265e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>154247.1275523737</v>
+        <v>205487.185040973</v>
       </c>
     </row>
     <row r="3">
@@ -61347,28 +61347,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.5931019110179</v>
+        <v>154.0790801071233</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.0548492916735</v>
+        <v>210.8177948917432</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.3520706926573</v>
+        <v>190.6976404319689</v>
       </c>
       <c r="AD3" t="n">
-        <v>112593.1019110179</v>
+        <v>154079.0801071233</v>
       </c>
       <c r="AE3" t="n">
-        <v>154054.8492916735</v>
+        <v>210817.7948917432</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.252092239798702e-06</v>
+        <v>4.80457865041519e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>139352.0706926573</v>
+        <v>190697.6404319689</v>
       </c>
     </row>
     <row r="4">
@@ -61453,28 +61453,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>109.8601555034883</v>
+        <v>151.1755414990015</v>
       </c>
       <c r="AB4" t="n">
-        <v>150.3155114478072</v>
+        <v>206.8450452730301</v>
       </c>
       <c r="AC4" t="n">
-        <v>135.9696100044148</v>
+        <v>187.1040444610754</v>
       </c>
       <c r="AD4" t="n">
-        <v>109860.1555034883</v>
+        <v>151175.5414990015</v>
       </c>
       <c r="AE4" t="n">
-        <v>150315.5114478073</v>
+        <v>206845.0452730301</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.392101388960942e-06</v>
+        <v>5.011425479879453e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>135969.6100044148</v>
+        <v>187104.0444610754</v>
       </c>
     </row>
     <row r="5">
@@ -61559,28 +61559,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>108.1790862966219</v>
+        <v>149.4944722921351</v>
       </c>
       <c r="AB5" t="n">
-        <v>148.0153983954345</v>
+        <v>204.5449322206574</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.8890165135309</v>
+        <v>185.0234509701914</v>
       </c>
       <c r="AD5" t="n">
-        <v>108179.0862966219</v>
+        <v>149494.4722921351</v>
       </c>
       <c r="AE5" t="n">
-        <v>148015.3983954345</v>
+        <v>204544.9322206574</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.467362153685571e-06</v>
+        <v>5.122614289035818e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.244791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>133889.0165135309</v>
+        <v>185023.4509701914</v>
       </c>
     </row>
     <row r="6">
@@ -61665,28 +61665,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>107.1994357512788</v>
+        <v>140.3883078167142</v>
       </c>
       <c r="AB6" t="n">
-        <v>146.674997300165</v>
+        <v>192.0854762497692</v>
       </c>
       <c r="AC6" t="n">
-        <v>132.6765414175287</v>
+        <v>173.7531079902045</v>
       </c>
       <c r="AD6" t="n">
-        <v>107199.4357512788</v>
+        <v>140388.3078167142</v>
       </c>
       <c r="AE6" t="n">
-        <v>146674.997300165</v>
+        <v>192085.4762497692</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.518422286508234e-06</v>
+        <v>5.19804954915695e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>132676.5414175287</v>
+        <v>173753.1079902045</v>
       </c>
     </row>
     <row r="7">
@@ -61771,28 +61771,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>107.1825309879293</v>
+        <v>140.3714030533647</v>
       </c>
       <c r="AB7" t="n">
-        <v>146.6518674571648</v>
+        <v>192.0623464067689</v>
       </c>
       <c r="AC7" t="n">
-        <v>132.6556190542814</v>
+        <v>173.7321856269573</v>
       </c>
       <c r="AD7" t="n">
-        <v>107182.5309879293</v>
+        <v>140371.4030533647</v>
       </c>
       <c r="AE7" t="n">
-        <v>146651.8674571648</v>
+        <v>192062.3464067689</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.518840812187109e-06</v>
+        <v>5.198667870961223e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.114583333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>132655.6190542814</v>
+        <v>173732.1856269573</v>
       </c>
     </row>
   </sheetData>
@@ -62068,28 +62068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.1422563789413</v>
+        <v>198.3161534231805</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.3265266357851</v>
+        <v>271.3449102046799</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.1122054972778</v>
+        <v>245.4481328097981</v>
       </c>
       <c r="AD2" t="n">
-        <v>147142.2563789414</v>
+        <v>198316.1534231805</v>
       </c>
       <c r="AE2" t="n">
-        <v>201326.5266357851</v>
+        <v>271344.9102046799</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.644634737679186e-06</v>
+        <v>3.840456623713351e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.6796875</v>
       </c>
       <c r="AH2" t="n">
-        <v>182112.2054972778</v>
+        <v>245448.1328097981</v>
       </c>
     </row>
     <row r="3">
@@ -62174,28 +62174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.1566207263553</v>
+        <v>184.2451769160228</v>
       </c>
       <c r="AB3" t="n">
-        <v>182.1907629332273</v>
+        <v>252.0923793799245</v>
       </c>
       <c r="AC3" t="n">
-        <v>164.802732225273</v>
+        <v>228.0330365058545</v>
       </c>
       <c r="AD3" t="n">
-        <v>133156.6207263553</v>
+        <v>184245.1769160228</v>
       </c>
       <c r="AE3" t="n">
-        <v>182190.7629332274</v>
+        <v>252092.3793799245</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.840806870208781e-06</v>
+        <v>4.12533171630266e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>164802.732225273</v>
+        <v>228033.0365058545</v>
       </c>
     </row>
     <row r="4">
@@ -62280,28 +62280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.4974874629888</v>
+        <v>172.0571503205009</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.1841753727253</v>
+        <v>235.4161836941551</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.273966354754</v>
+        <v>212.9483935311419</v>
       </c>
       <c r="AD4" t="n">
-        <v>129497.4874629888</v>
+        <v>172057.1503205009</v>
       </c>
       <c r="AE4" t="n">
-        <v>177184.1753727254</v>
+        <v>235416.1836941551</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.987040396017516e-06</v>
+        <v>4.33768751152826e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>160273.9663547539</v>
+        <v>212948.3935311419</v>
       </c>
     </row>
     <row r="5">
@@ -62386,28 +62386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.3654540267416</v>
+        <v>169.3686693618375</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.9528361146052</v>
+        <v>231.7376854391047</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.496284738105</v>
+        <v>209.6209659867477</v>
       </c>
       <c r="AD5" t="n">
-        <v>118365.4540267416</v>
+        <v>169368.6693618375</v>
       </c>
       <c r="AE5" t="n">
-        <v>161952.8361146052</v>
+        <v>231737.6854391047</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.096549473748392e-06</v>
+        <v>4.496713201139126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>146496.284738105</v>
+        <v>209620.9659867477</v>
       </c>
     </row>
     <row r="6">
@@ -62492,28 +62492,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>115.88574889189</v>
+        <v>158.5306630954226</v>
       </c>
       <c r="AB6" t="n">
-        <v>158.5599941522332</v>
+        <v>216.9086471263122</v>
       </c>
       <c r="AC6" t="n">
-        <v>143.4272508507371</v>
+        <v>196.2071902778374</v>
       </c>
       <c r="AD6" t="n">
-        <v>115885.74889189</v>
+        <v>158530.6630954226</v>
       </c>
       <c r="AE6" t="n">
-        <v>158559.9941522332</v>
+        <v>216908.6471263122</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.20147985737137e-06</v>
+        <v>4.649089853034459e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.6484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>143427.2508507371</v>
+        <v>196207.1902778374</v>
       </c>
     </row>
     <row r="7">
@@ -62598,28 +62598,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>115.0977913512886</v>
+        <v>157.7427055548212</v>
       </c>
       <c r="AB7" t="n">
-        <v>157.4818758829497</v>
+        <v>215.8305288570286</v>
       </c>
       <c r="AC7" t="n">
-        <v>142.4520266759251</v>
+        <v>195.2319661030254</v>
       </c>
       <c r="AD7" t="n">
-        <v>115097.7913512886</v>
+        <v>157742.7055548212</v>
       </c>
       <c r="AE7" t="n">
-        <v>157481.8758829497</v>
+        <v>215830.5288570286</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.230778754901185e-06</v>
+        <v>4.691636804219342e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.557291666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>142452.0266759252</v>
+        <v>195231.9661030254</v>
       </c>
     </row>
     <row r="8">
@@ -62704,28 +62704,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>113.7289546633153</v>
+        <v>156.2032766662558</v>
       </c>
       <c r="AB8" t="n">
-        <v>155.608973137653</v>
+        <v>213.7242143368851</v>
       </c>
       <c r="AC8" t="n">
-        <v>140.7578711400034</v>
+        <v>193.3266752844526</v>
       </c>
       <c r="AD8" t="n">
-        <v>113728.9546633154</v>
+        <v>156203.2766662558</v>
       </c>
       <c r="AE8" t="n">
-        <v>155608.973137653</v>
+        <v>213724.2143368851</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.281429075732082e-06</v>
+        <v>4.765189630761629e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.4140625</v>
       </c>
       <c r="AH8" t="n">
-        <v>140757.8711400034</v>
+        <v>193326.6752844526</v>
       </c>
     </row>
     <row r="9">
@@ -62810,28 +62810,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>112.8489176441426</v>
+        <v>155.3232396470831</v>
       </c>
       <c r="AB9" t="n">
-        <v>154.4048676635282</v>
+        <v>212.5201088627603</v>
       </c>
       <c r="AC9" t="n">
-        <v>139.6686838023561</v>
+        <v>192.2374879468053</v>
       </c>
       <c r="AD9" t="n">
-        <v>112848.9176441426</v>
+        <v>155323.239647083</v>
       </c>
       <c r="AE9" t="n">
-        <v>154404.8676635282</v>
+        <v>212520.1088627603</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.304654679522925e-06</v>
+        <v>4.798917132955961e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.348958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>139668.6838023561</v>
+        <v>192237.4879468053</v>
       </c>
     </row>
     <row r="10">
@@ -62916,28 +62916,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>112.4741922042534</v>
+        <v>154.9485142071939</v>
       </c>
       <c r="AB10" t="n">
-        <v>153.8921517849524</v>
+        <v>212.0073929841845</v>
       </c>
       <c r="AC10" t="n">
-        <v>139.2049008076302</v>
+        <v>191.7737049520794</v>
       </c>
       <c r="AD10" t="n">
-        <v>112474.1922042534</v>
+        <v>154948.5142071939</v>
       </c>
       <c r="AE10" t="n">
-        <v>153892.1517849524</v>
+        <v>212007.3929841846</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.329256263926503e-06</v>
+        <v>4.834642791562215e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.283854166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>139204.9008076302</v>
+        <v>191773.7049520794</v>
       </c>
     </row>
   </sheetData>
@@ -63213,28 +63213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.9248873086406</v>
+        <v>231.9614058678998</v>
       </c>
       <c r="AB2" t="n">
-        <v>233.86697148941</v>
+        <v>317.3798289233013</v>
       </c>
       <c r="AC2" t="n">
-        <v>211.5470359648842</v>
+        <v>287.0895434963431</v>
       </c>
       <c r="AD2" t="n">
-        <v>170924.8873086406</v>
+        <v>231961.4058678998</v>
       </c>
       <c r="AE2" t="n">
-        <v>233866.97148941</v>
+        <v>317379.8289233012</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.308171314547464e-06</v>
+        <v>3.30577761735233e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.96875</v>
       </c>
       <c r="AH2" t="n">
-        <v>211547.0359648842</v>
+        <v>287089.5434963431</v>
       </c>
     </row>
     <row r="3">
@@ -63319,28 +63319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>154.3953892733722</v>
+        <v>215.3465669780598</v>
       </c>
       <c r="AB3" t="n">
-        <v>211.2505830475802</v>
+        <v>294.6466733592738</v>
       </c>
       <c r="AC3" t="n">
-        <v>191.0891238936349</v>
+        <v>266.5260083931549</v>
       </c>
       <c r="AD3" t="n">
-        <v>154395.3892733722</v>
+        <v>215346.5669780598</v>
       </c>
       <c r="AE3" t="n">
-        <v>211250.5830475802</v>
+        <v>294646.6733592739</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.514896902158495e-06</v>
+        <v>3.601851316973947e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.90104166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>191089.1238936349</v>
+        <v>266526.0083931549</v>
       </c>
     </row>
     <row r="4">
@@ -63425,28 +63425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.6153141754185</v>
+        <v>201.8348871866813</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.7102734165333</v>
+        <v>276.1593969754769</v>
       </c>
       <c r="AC4" t="n">
-        <v>185.1730122343908</v>
+        <v>249.8031317203663</v>
       </c>
       <c r="AD4" t="n">
-        <v>149615.3141754185</v>
+        <v>201834.8871866813</v>
       </c>
       <c r="AE4" t="n">
-        <v>204710.2734165333</v>
+        <v>276159.3969754769</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.663727369137275e-06</v>
+        <v>3.815007257097484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.23697916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>185173.0122343908</v>
+        <v>249803.1317203663</v>
       </c>
     </row>
     <row r="5">
@@ -63531,28 +63531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>137.3891533220408</v>
+        <v>189.6939776793241</v>
       </c>
       <c r="AB5" t="n">
-        <v>187.9819007568009</v>
+        <v>259.5476689683938</v>
       </c>
       <c r="AC5" t="n">
-        <v>170.0411719828795</v>
+        <v>234.7768037195673</v>
       </c>
       <c r="AD5" t="n">
-        <v>137389.1533220407</v>
+        <v>189693.9776793241</v>
       </c>
       <c r="AE5" t="n">
-        <v>187981.9007568009</v>
+        <v>259547.6689683938</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.783679253306639e-06</v>
+        <v>3.986803107495211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.75520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>170041.1719828795</v>
+        <v>234776.8037195673</v>
       </c>
     </row>
     <row r="6">
@@ -63637,28 +63637,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.9374894573058</v>
+        <v>178.5107091211644</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.6274260972961</v>
+        <v>244.2462275561389</v>
       </c>
       <c r="AC6" t="n">
-        <v>167.006843676842</v>
+        <v>220.9357103999852</v>
       </c>
       <c r="AD6" t="n">
-        <v>134937.4894573058</v>
+        <v>178510.7091211644</v>
       </c>
       <c r="AE6" t="n">
-        <v>184627.4260972961</v>
+        <v>244246.2275561389</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.875258389715797e-06</v>
+        <v>4.117963328337486e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.41666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>167006.843676842</v>
+        <v>220935.7103999852</v>
       </c>
     </row>
     <row r="7">
@@ -63743,28 +63743,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>132.3155906263426</v>
+        <v>175.8888102902011</v>
       </c>
       <c r="AB7" t="n">
-        <v>181.0400284467611</v>
+        <v>240.658829905604</v>
       </c>
       <c r="AC7" t="n">
-        <v>163.7618222231287</v>
+        <v>217.690688946272</v>
       </c>
       <c r="AD7" t="n">
-        <v>132315.5906263425</v>
+        <v>175888.8102902012</v>
       </c>
       <c r="AE7" t="n">
-        <v>181040.0284467611</v>
+        <v>240658.829905604</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.966147751057851e-06</v>
+        <v>4.248135648947457e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.09114583333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>163761.8222231287</v>
+        <v>217690.688946272</v>
       </c>
     </row>
     <row r="8">
@@ -63849,28 +63849,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.8857481908315</v>
+        <v>175.4589678546901</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.4518990631853</v>
+        <v>240.0707005220281</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.2298230824765</v>
+        <v>217.1586898056196</v>
       </c>
       <c r="AD8" t="n">
-        <v>131885.7481908315</v>
+        <v>175458.9678546901</v>
       </c>
       <c r="AE8" t="n">
-        <v>180451.8990631853</v>
+        <v>240070.7005220281</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.984863647878603e-06</v>
+        <v>4.274940675250649e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.02604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>163229.8230824764</v>
+        <v>217158.6898056197</v>
       </c>
     </row>
     <row r="9">
@@ -63955,28 +63955,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>121.6581313929098</v>
+        <v>165.316602402789</v>
       </c>
       <c r="AB9" t="n">
-        <v>166.4580225496676</v>
+        <v>226.1934686611596</v>
       </c>
       <c r="AC9" t="n">
-        <v>150.5715025028753</v>
+        <v>204.6058814767308</v>
       </c>
       <c r="AD9" t="n">
-        <v>121658.1313929098</v>
+        <v>165316.602402789</v>
       </c>
       <c r="AE9" t="n">
-        <v>166458.0225496676</v>
+        <v>226193.4686611596</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.037217575471787e-06</v>
+        <v>4.349922302882549e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.856770833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>150571.5025028753</v>
+        <v>204605.8814767308</v>
       </c>
     </row>
     <row r="10">
@@ -64061,28 +64061,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>120.7385637566199</v>
+        <v>164.3970347664991</v>
       </c>
       <c r="AB10" t="n">
-        <v>165.1998295412354</v>
+        <v>224.9352756527275</v>
       </c>
       <c r="AC10" t="n">
-        <v>149.4333896692826</v>
+        <v>203.467768643138</v>
       </c>
       <c r="AD10" t="n">
-        <v>120738.5637566199</v>
+        <v>164397.0347664991</v>
       </c>
       <c r="AE10" t="n">
-        <v>165199.8295412354</v>
+        <v>224935.2756527275</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.060348032722004e-06</v>
+        <v>4.383049890672489e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.778645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>149433.3896692826</v>
+        <v>203467.768643138</v>
       </c>
     </row>
     <row r="11">
@@ -64167,28 +64167,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>119.2049846577489</v>
+        <v>162.863455667628</v>
       </c>
       <c r="AB11" t="n">
-        <v>163.1015189614263</v>
+        <v>222.8369650729183</v>
       </c>
       <c r="AC11" t="n">
-        <v>147.5353389062123</v>
+        <v>201.5697178800678</v>
       </c>
       <c r="AD11" t="n">
-        <v>119204.9846577488</v>
+        <v>162863.455667628</v>
       </c>
       <c r="AE11" t="n">
-        <v>163101.5189614262</v>
+        <v>222836.9650729183</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.11727746826031e-06</v>
+        <v>4.464584589845343e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>147535.3389062123</v>
+        <v>201569.7178800678</v>
       </c>
     </row>
     <row r="12">
@@ -64273,28 +64273,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>118.2468894874084</v>
+        <v>161.9053604972875</v>
       </c>
       <c r="AB12" t="n">
-        <v>161.7906108811912</v>
+        <v>221.5260569926833</v>
       </c>
       <c r="AC12" t="n">
-        <v>146.3495420532835</v>
+        <v>200.3839210271389</v>
       </c>
       <c r="AD12" t="n">
-        <v>118246.8894874084</v>
+        <v>161905.3604972875</v>
       </c>
       <c r="AE12" t="n">
-        <v>161790.6108811912</v>
+        <v>221526.0569926833</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.144638545922098e-06</v>
+        <v>4.503771299060082e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.518229166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>146349.5420532835</v>
+        <v>200383.9210271389</v>
       </c>
     </row>
     <row r="13">
@@ -64379,28 +64379,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>117.4085240279243</v>
+        <v>160.8964028372113</v>
       </c>
       <c r="AB13" t="n">
-        <v>160.643522273452</v>
+        <v>220.1455566100973</v>
       </c>
       <c r="AC13" t="n">
-        <v>145.3119299723176</v>
+        <v>199.135173663522</v>
       </c>
       <c r="AD13" t="n">
-        <v>117408.5240279243</v>
+        <v>160896.4028372113</v>
       </c>
       <c r="AE13" t="n">
-        <v>160643.5222734521</v>
+        <v>220145.5566100973</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.167608055656656e-06</v>
+        <v>4.536668376795817e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.453125</v>
       </c>
       <c r="AH13" t="n">
-        <v>145311.9299723176</v>
+        <v>199135.173663522</v>
       </c>
     </row>
     <row r="14">
@@ -64485,28 +64485,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>117.662141740591</v>
+        <v>161.150020549878</v>
       </c>
       <c r="AB14" t="n">
-        <v>160.9905332167462</v>
+        <v>220.4925675533914</v>
       </c>
       <c r="AC14" t="n">
-        <v>145.6258226782168</v>
+        <v>199.4490663694212</v>
       </c>
       <c r="AD14" t="n">
-        <v>117662.141740591</v>
+        <v>161150.020549878</v>
       </c>
       <c r="AE14" t="n">
-        <v>160990.5332167462</v>
+        <v>220492.5675533914</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.160112499927461e-06</v>
+        <v>4.525933194271443e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.479166666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>145625.8226782168</v>
+        <v>199449.0663694212</v>
       </c>
     </row>
   </sheetData>
